--- a/NVMConfig/res/NVM_Table.xlsx
+++ b/NVMConfig/res/NVM_Table.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ConstNvmMapSection" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="DtcNvmMapSection" sheetId="7" r:id="rId4"/>
     <sheet name="OdoNvmMapSection" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -152,6 +152,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -390,7 +393,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -450,6 +453,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,6 +463,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -468,7 +542,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -747,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -964,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -980,7 +1054,7 @@
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="20">
         <v>256</v>
       </c>
       <c r="D2" s="1"/>
@@ -990,7 +1064,7 @@
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="20">
         <v>1024</v>
       </c>
       <c r="D3" s="1"/>
@@ -1182,7 +1256,7 @@
   <dimension ref="B2:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1615,7 +1689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/NVMConfig/res/NVM_Table.xlsx
+++ b/NVMConfig/res/NVM_Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="ConstNvmMapSection" sheetId="2" r:id="rId1"/>
@@ -18,15 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="32">
-  <si>
-    <t>NVM_PROD_VERSION_INFO1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_PROD_VERSION_INFO2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,10 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NVM_PROD_VERSION_INFO3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NVM_PROD_VERSION_INFO4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,6 +134,85 @@
   <si>
     <t>OdoNvmMapSection Size</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_PROD_VERSION_INFO1_U8</t>
+  </si>
+  <si>
+    <t>NVM_CONST_PROD_VERSION_INFO2</t>
+  </si>
+  <si>
+    <t>0x01, 0x00, 0x00, 0x00, 0xFF, 0xFF, 0xFF, 0xFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_MagicCfg_U8</t>
+  </si>
+  <si>
+    <t>0x5A, 0x5A, 0xFF, 0xFF, 0xFF, 0xFF, 0xFF, 0xFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_OemCfg_5007_U8</t>
+  </si>
+  <si>
+    <t>NVM_OemCfg_5024_U8</t>
+  </si>
+  <si>
+    <t>NVM_OemCfg_5028_U8</t>
+  </si>
+  <si>
+    <t>NVM_OemCfg_5032_U8</t>
+  </si>
+  <si>
+    <t>NVM_OemCfg_502C_U8</t>
+  </si>
+  <si>
+    <t>NVM_OdoOffsetCfg_U8</t>
+  </si>
+  <si>
+    <t>NVM_OdoOffsetCfg_U9</t>
+  </si>
+  <si>
+    <t>NVM_OdoOffsetCfg_U10</t>
+  </si>
+  <si>
+    <t>NVM_OdoOffsetCfg_U11</t>
+  </si>
+  <si>
+    <t>NVM_OdoOffsetCfg_U12</t>
+  </si>
+  <si>
+    <t>NVM_FBL_VERSION_INFO1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_FBL_VERSION_INFO2</t>
+  </si>
+  <si>
+    <t>NVM_FBL_VERSION_INFO3</t>
+  </si>
+  <si>
+    <t>NVM_FBL_VERSION_INFO4</t>
+  </si>
+  <si>
+    <t>NVM_FBL_VERSION_INFO5</t>
+  </si>
+  <si>
+    <t>NVM_DTC_VERSION_INFO1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_DTC_VERSION_INFO2</t>
+  </si>
+  <si>
+    <t>NVM_DTC_VERSION_INFO3</t>
+  </si>
+  <si>
+    <t>NVM_DTC_VERSION_INFO4</t>
+  </si>
+  <si>
+    <t>NVM_DTC_VERSION_INFO5</t>
   </si>
 </sst>
 </file>
@@ -821,8 +888,225 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="42.5" customWidth="1"/>
+    <col min="3" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="43.5" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="14.25">
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:5" ht="14.25">
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1">
+        <v>256</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:5" ht="14.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:5" ht="15" thickBot="1">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="2:5" ht="14.25">
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="39.75" customHeight="1">
+      <c r="B7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="14.25">
+      <c r="B8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="14.25">
+      <c r="B9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="17">
+        <v>2</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="14.25">
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="17">
+        <v>2</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="14.25">
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="17">
+        <v>3</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="14.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="2:5" ht="14.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="2:5" ht="14.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="2:5" ht="14.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="2:5" ht="14.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="2:5" ht="14.25">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="2:5" ht="14.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="2:5" ht="14.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="2:5" ht="14.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="2:5" ht="14.25">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="2:5" ht="14.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="2:5" ht="14.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="2:5" ht="15" thickBot="1">
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -835,20 +1119,20 @@
   <sheetData>
     <row r="2" spans="2:5" ht="14.25">
       <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="C2" s="20">
+        <v>256</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="2:5" ht="14.25">
       <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1">
-        <v>256</v>
+        <v>22</v>
+      </c>
+      <c r="C3" s="20">
+        <v>1024</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
@@ -867,86 +1151,86 @@
     </row>
     <row r="6" spans="2:5" ht="14.25">
       <c r="B6" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>8</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="39.75" customHeight="1">
       <c r="B7" s="6" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7" s="17">
         <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="14.25">
       <c r="B8" s="6" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="17">
         <v>1</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="14.25">
       <c r="B9" s="6" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" s="17">
         <v>2</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="14.25">
       <c r="B10" s="6" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" s="17">
         <v>2</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="14.25">
       <c r="B11" s="6" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11" s="17">
         <v>3</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="14.25">
@@ -1034,12 +1318,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1052,20 +1336,20 @@
   <sheetData>
     <row r="2" spans="2:5" ht="14.25">
       <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="20">
-        <v>256</v>
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="2:5" ht="14.25">
       <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="20">
-        <v>1024</v>
+        <v>24</v>
+      </c>
+      <c r="C3" s="1">
+        <v>256</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
@@ -1084,86 +1368,86 @@
     </row>
     <row r="6" spans="2:5" ht="14.25">
       <c r="B6" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>8</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="39.75" customHeight="1">
       <c r="B7" s="6" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7" s="17">
         <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="14.25">
       <c r="B8" s="6" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="17">
         <v>1</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="14.25">
       <c r="B9" s="6" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" s="17">
         <v>2</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="14.25">
       <c r="B10" s="6" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" s="17">
         <v>2</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="14.25">
       <c r="B11" s="6" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11" s="17">
         <v>3</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="14.25">
@@ -1251,12 +1535,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1269,20 +1553,20 @@
   <sheetData>
     <row r="2" spans="2:5" ht="14.25">
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="2:5" ht="14.25">
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1">
-        <v>256</v>
+        <v>336</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
@@ -1301,303 +1585,86 @@
     </row>
     <row r="6" spans="2:5" ht="14.25">
       <c r="B6" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>8</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="39.75" customHeight="1">
       <c r="B7" s="6" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7" s="17">
         <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="14.25">
       <c r="B8" s="6" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="17">
         <v>1</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="14.25">
       <c r="B9" s="6" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" s="17">
         <v>2</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="14.25">
       <c r="B10" s="6" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" s="17">
         <v>2</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="14.25">
       <c r="B11" s="6" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11" s="17">
         <v>3</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="14.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="2:5" ht="14.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="2:5" ht="14.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="2:5" ht="14.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="2:5" ht="14.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="2:5" ht="14.25">
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="2:5" ht="14.25">
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="2:5" ht="14.25">
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="2:5" ht="14.25">
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="2:5" ht="14.25">
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="2:5" ht="14.25">
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" spans="2:5" ht="14.25">
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" spans="2:5" ht="15" thickBot="1">
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="15"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="42.5" customWidth="1"/>
-    <col min="3" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="37.375" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" ht="14.25">
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="2:5" ht="14.25">
-      <c r="B3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="1">
-        <v>336</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="2:5" ht="14.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="2:5" ht="15" thickBot="1">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="2:5" ht="14.25">
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="39.75" customHeight="1">
-      <c r="B7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="17">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="14.25">
-      <c r="B8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="17">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="14.25">
-      <c r="B9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="17">
-        <v>2</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="14.25">
-      <c r="B10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="17">
-        <v>2</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="14.25">
-      <c r="B11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="17">
-        <v>3</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="14.25">
@@ -1690,7 +1757,7 @@
   <dimension ref="B2:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1704,17 +1771,17 @@
   <sheetData>
     <row r="2" spans="2:5" ht="14.25">
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="2:5" ht="14.25">
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1">
         <v>176</v>
@@ -1736,86 +1803,86 @@
     </row>
     <row r="6" spans="2:5" ht="14.25">
       <c r="B6" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>8</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="39.75" customHeight="1">
       <c r="B7" s="6" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7" s="17">
         <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="14.25">
       <c r="B8" s="6" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="17">
         <v>1</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="14.25">
       <c r="B9" s="6" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" s="17">
         <v>2</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="14.25">
       <c r="B10" s="6" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" s="17">
         <v>2</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="14.25">
       <c r="B11" s="6" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11" s="17">
         <v>3</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="14.25">

--- a/NVMConfig/res/NVM_Table.xlsx
+++ b/NVMConfig/res/NVM_Table.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="56">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,17 +142,9 @@
     <t>NVM_CONST_PROD_VERSION_INFO2</t>
   </si>
   <si>
-    <t>0x01, 0x00, 0x00, 0x00, 0xFF, 0xFF, 0xFF, 0xFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NVM_MagicCfg_U8</t>
   </si>
   <si>
-    <t>0x5A, 0x5A, 0xFF, 0xFF, 0xFF, 0xFF, 0xFF, 0xFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NVM_OemCfg_5007_U8</t>
   </si>
   <si>
@@ -213,6 +205,22 @@
   </si>
   <si>
     <t>NVM_DTC_VERSION_INFO5</t>
+  </si>
+  <si>
+    <t>int16[8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32[8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x5A6B, 0x5A123487, 0xFF11, 0xFFcdab34, 0xFF, 0xFF, 0xFF, 0xFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01ab, 0x0012, 0x3400, 0x00, 0xFF, 0xFF, 0xFF, 0xFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -889,7 +897,224 @@
   <dimension ref="B2:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="42.5" customWidth="1"/>
+    <col min="3" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="62.25" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="14.25">
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:5" ht="14.25">
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1">
+        <v>256</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:5" ht="14.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:5" ht="15" thickBot="1">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="2:5" ht="14.25">
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="39.75" customHeight="1">
+      <c r="B7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="14.25">
+      <c r="B8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="14.25">
+      <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="17">
+        <v>2</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="14.25">
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="17">
+        <v>2</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="14.25">
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="17">
+        <v>3</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="14.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="2:5" ht="14.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="2:5" ht="14.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="2:5" ht="14.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="2:5" ht="14.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="2:5" ht="14.25">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="2:5" ht="14.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="2:5" ht="14.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="2:5" ht="14.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="2:5" ht="14.25">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="2:5" ht="14.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="2:5" ht="14.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="2:5" ht="15" thickBot="1">
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -902,20 +1127,20 @@
   <sheetData>
     <row r="2" spans="2:5" ht="14.25">
       <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="C2" s="20">
+        <v>256</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="2:5" ht="14.25">
       <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1">
-        <v>256</v>
+        <v>22</v>
+      </c>
+      <c r="C3" s="20">
+        <v>1024</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
@@ -948,7 +1173,7 @@
     </row>
     <row r="7" spans="2:5" ht="39.75" customHeight="1">
       <c r="B7" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>10</v>
@@ -962,7 +1187,7 @@
     </row>
     <row r="8" spans="2:5" ht="14.25">
       <c r="B8" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>7</v>
@@ -971,12 +1196,12 @@
         <v>1</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="14.25">
       <c r="B9" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>2</v>
@@ -985,12 +1210,12 @@
         <v>2</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="14.25">
       <c r="B10" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>13</v>
@@ -1004,224 +1229,7 @@
     </row>
     <row r="11" spans="2:5" ht="14.25">
       <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="17">
-        <v>3</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="14.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="2:5" ht="14.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="2:5" ht="14.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="2:5" ht="14.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="2:5" ht="14.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="2:5" ht="14.25">
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="2:5" ht="14.25">
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="2:5" ht="14.25">
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="2:5" ht="14.25">
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="2:5" ht="14.25">
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="2:5" ht="14.25">
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" spans="2:5" ht="14.25">
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" spans="2:5" ht="15" thickBot="1">
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="15"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="42.5" customWidth="1"/>
-    <col min="3" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="37.375" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" ht="14.25">
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="20">
-        <v>256</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="2:5" ht="14.25">
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="20">
-        <v>1024</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="2:5" ht="14.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="2:5" ht="15" thickBot="1">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="2:5" ht="14.25">
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="39.75" customHeight="1">
-      <c r="B7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="17">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="14.25">
-      <c r="B8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="17">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="14.25">
-      <c r="B9" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="17">
-        <v>2</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="14.25">
-      <c r="B10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="17">
-        <v>2</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="14.25">
-      <c r="B11" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>14</v>
@@ -1382,7 +1390,7 @@
     </row>
     <row r="7" spans="2:5" ht="39.75" customHeight="1">
       <c r="B7" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>10</v>
@@ -1396,7 +1404,7 @@
     </row>
     <row r="8" spans="2:5" ht="14.25">
       <c r="B8" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>7</v>
@@ -1410,7 +1418,7 @@
     </row>
     <row r="9" spans="2:5" ht="14.25">
       <c r="B9" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>2</v>
@@ -1424,7 +1432,7 @@
     </row>
     <row r="10" spans="2:5" ht="14.25">
       <c r="B10" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>13</v>
@@ -1438,7 +1446,7 @@
     </row>
     <row r="11" spans="2:5" ht="14.25">
       <c r="B11" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>14</v>
@@ -1599,7 +1607,7 @@
     </row>
     <row r="7" spans="2:5" ht="39.75" customHeight="1">
       <c r="B7" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>10</v>
@@ -1613,7 +1621,7 @@
     </row>
     <row r="8" spans="2:5" ht="14.25">
       <c r="B8" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>7</v>
@@ -1627,7 +1635,7 @@
     </row>
     <row r="9" spans="2:5" ht="14.25">
       <c r="B9" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>2</v>
@@ -1641,7 +1649,7 @@
     </row>
     <row r="10" spans="2:5" ht="14.25">
       <c r="B10" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>13</v>
@@ -1655,7 +1663,7 @@
     </row>
     <row r="11" spans="2:5" ht="14.25">
       <c r="B11" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>14</v>
@@ -1817,7 +1825,7 @@
     </row>
     <row r="7" spans="2:5" ht="39.75" customHeight="1">
       <c r="B7" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>10</v>
@@ -1831,7 +1839,7 @@
     </row>
     <row r="8" spans="2:5" ht="14.25">
       <c r="B8" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>7</v>
@@ -1845,7 +1853,7 @@
     </row>
     <row r="9" spans="2:5" ht="14.25">
       <c r="B9" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>2</v>
@@ -1859,7 +1867,7 @@
     </row>
     <row r="10" spans="2:5" ht="14.25">
       <c r="B10" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>13</v>
@@ -1873,7 +1881,7 @@
     </row>
     <row r="11" spans="2:5" ht="14.25">
       <c r="B11" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>14</v>

--- a/NVMConfig/res/NVM_Table.xlsx
+++ b/NVMConfig/res/NVM_Table.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,7 +219,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x01ab, 0x0012, 0x3400, 0x00, 0xFF, 0xFF, 0xFF, 0xFF</t>
+    <t>0x01ab, 0x0012, 0x3400, 0x00, 0xfaFF, 0xFF, 0xFF, 0xFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[12]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -897,7 +901,7 @@
   <dimension ref="B2:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1015,7 +1019,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D11" s="17">
         <v>3</v>

--- a/NVMConfig/res/NVM_Table.xlsx
+++ b/NVMConfig/res/NVM_Table.xlsx
@@ -901,7 +901,7 @@
   <dimension ref="B2:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/NVMConfig/res/NVM_Table.xlsx
+++ b/NVMConfig/res/NVM_Table.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="9" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="DtcNvmMapSection" sheetId="7" r:id="rId5"/>
     <sheet name="OdoNvmMapSection" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -379,194 +379,194 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">0xFF860080, 0xFF860080, 0xFF860080, 0xFF860080, 
+    <t>NVM_PROD_VERSION_INFO1_U8_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_PROD_VERSION_INFO2_U8_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F100_U8_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F190_U8_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F187_U8_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F197_U8_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F18A_U8_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F193_U8_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F195_U8_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F18C_U8_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F199_U8_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F184_U8_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F150_U8_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F180_U8_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F1A8_U8_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_MagicCfg_U8_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN_TAB_SPD_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT_TAB_SPD_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RO_VAL_G4_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN_TAB_TACH_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT_TAB_TACH_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RO_VAL_G1_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN_TAB_TEMP_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT_TAB_TEMP_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RO_VAL_G2_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN_TAB_OIL_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT_TAB_OIL_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RO_VAL_G3_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelSender_Table_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_TripARstOdo_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_SiaRstOdo_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_TripBRstOdo_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_OdoCfg_5001_U8_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_OdoCfg_OFFSET_U8_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_OdoCfg_RST_CNT_U8_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_RsvdCfg1_U8_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_RsvdCfg2_U8_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_RsvdCfg3_U8_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_RsvdCfg4_U8_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_RsvdCfg5_U8_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_RsvdCfg6_U8_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_RsvdCfg7_U8_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_RsvdCfg8_U8_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_RsvdCfg9_U8_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xFF860080, 0xFF860080, 0xFF860080, 0xFF860080, 
 0xFF860080, 0xFF860080, 0xFF860080, 0xFF860080, 
 0xFF860080, 0xFF860080, 0xFF860080, 0xFF860080, 
 0xFF860080, 0xFF860080, 0xFF860080, 0xFF860080, 
 0xFF860080, 0xFF860080, 0xFF860080, 0xFF860080, 
 0xFF860080, 0xFF860080, 0xFF860080, 0xFF860080, 
 0xFF860080, 0xFF860080, 0xFF860080, 0xFF860080, 
-0xFF860080, 0xFF860080, 0xFF860080, 0xFF860080, </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_PROD_VERSION_INFO1_U8_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_PROD_VERSION_INFO2_U8_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F100_U8_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F190_U8_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F187_U8_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F197_U8_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F18A_U8_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F193_U8_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F195_U8_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F18C_U8_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F199_U8_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F184_U8_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F150_U8_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F180_U8_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F1A8_U8_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_MagicCfg_U8_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IN_TAB_SPD_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OUT_TAB_SPD_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RO_VAL_G4_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IN_TAB_TACH_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OUT_TAB_TACH_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RO_VAL_G1_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IN_TAB_TEMP_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OUT_TAB_TEMP_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RO_VAL_G2_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IN_TAB_OIL_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OUT_TAB_OIL_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RO_VAL_G3_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FuelSender_Table_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_TripARstOdo_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_SiaRstOdo_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_TripBRstOdo_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_OdoCfg_5001_U8_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_OdoCfg_OFFSET_U8_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_OdoCfg_RST_CNT_U8_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_RsvdCfg1_U8_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_RsvdCfg2_U8_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_RsvdCfg3_U8_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_RsvdCfg4_U8_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_RsvdCfg5_U8_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_RsvdCfg6_U8_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_RsvdCfg7_U8_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_RsvdCfg8_U8_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_RsvdCfg9_U8_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO_U32_ODO</t>
+0xFF860080, 0xFF860080, 0xFF860080, 0xFF860080</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -963,6 +963,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1023,7 +1091,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1463,7 +1531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -1531,7 +1599,7 @@
     </row>
     <row r="7" spans="2:8" ht="39.75" customHeight="1">
       <c r="B7" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>4</v>
@@ -1546,7 +1614,7 @@
     </row>
     <row r="8" spans="2:8" ht="28.5">
       <c r="B8" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>4</v>
@@ -1560,7 +1628,7 @@
     </row>
     <row r="9" spans="2:8" ht="14.25">
       <c r="B9" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>26</v>
@@ -1574,7 +1642,7 @@
     </row>
     <row r="10" spans="2:8" ht="42.75">
       <c r="B10" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>28</v>
@@ -1588,7 +1656,7 @@
     </row>
     <row r="11" spans="2:8" ht="28.5">
       <c r="B11" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>30</v>
@@ -1602,7 +1670,7 @@
     </row>
     <row r="12" spans="2:8" ht="28.5">
       <c r="B12" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>30</v>
@@ -1616,7 +1684,7 @@
     </row>
     <row r="13" spans="2:8" ht="28.5">
       <c r="B13" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>33</v>
@@ -1630,7 +1698,7 @@
     </row>
     <row r="14" spans="2:8" ht="14.25">
       <c r="B14" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>26</v>
@@ -1644,7 +1712,7 @@
     </row>
     <row r="15" spans="2:8" ht="14.25">
       <c r="B15" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>26</v>
@@ -1658,7 +1726,7 @@
     </row>
     <row r="16" spans="2:8" ht="42.75">
       <c r="B16" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>35</v>
@@ -1672,7 +1740,7 @@
     </row>
     <row r="17" spans="2:5" ht="14.25">
       <c r="B17" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>37</v>
@@ -1686,7 +1754,7 @@
     </row>
     <row r="18" spans="2:5" ht="28.5">
       <c r="B18" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>30</v>
@@ -1700,7 +1768,7 @@
     </row>
     <row r="19" spans="2:5" ht="28.5">
       <c r="B19" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>33</v>
@@ -1714,7 +1782,7 @@
     </row>
     <row r="20" spans="2:5" ht="14.25">
       <c r="B20" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>26</v>
@@ -1728,7 +1796,7 @@
     </row>
     <row r="21" spans="2:5" ht="42.75">
       <c r="B21" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>39</v>
@@ -1742,7 +1810,7 @@
     </row>
     <row r="22" spans="2:5" ht="28.5">
       <c r="B22" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>4</v>
@@ -1756,7 +1824,7 @@
     </row>
     <row r="23" spans="2:5" ht="14.25">
       <c r="B23" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>42</v>
@@ -1770,7 +1838,7 @@
     </row>
     <row r="24" spans="2:5" ht="14.25">
       <c r="B24" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>42</v>
@@ -1784,7 +1852,7 @@
     </row>
     <row r="25" spans="2:5" ht="14.25">
       <c r="B25" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>44</v>
@@ -1798,7 +1866,7 @@
     </row>
     <row r="26" spans="2:5" ht="14.25">
       <c r="B26" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>45</v>
@@ -1812,7 +1880,7 @@
     </row>
     <row r="27" spans="2:5" ht="14.25">
       <c r="B27" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>45</v>
@@ -1826,7 +1894,7 @@
     </row>
     <row r="28" spans="2:5" ht="14.25">
       <c r="B28" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>44</v>
@@ -1840,7 +1908,7 @@
     </row>
     <row r="29" spans="2:5" ht="14.25">
       <c r="B29" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>48</v>
@@ -1854,7 +1922,7 @@
     </row>
     <row r="30" spans="2:5" ht="14.25">
       <c r="B30" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>48</v>
@@ -1868,7 +1936,7 @@
     </row>
     <row r="31" spans="2:5" ht="14.25">
       <c r="B31" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>44</v>
@@ -1882,7 +1950,7 @@
     </row>
     <row r="32" spans="2:5" ht="14.25">
       <c r="B32" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>48</v>
@@ -1896,7 +1964,7 @@
     </row>
     <row r="33" spans="2:5" ht="14.25">
       <c r="B33" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>48</v>
@@ -1910,7 +1978,7 @@
     </row>
     <row r="34" spans="2:5" ht="14.25">
       <c r="B34" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>44</v>
@@ -1924,7 +1992,7 @@
     </row>
     <row r="35" spans="2:5" ht="28.5">
       <c r="B35" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>53</v>
@@ -2862,8 +2930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2931,7 +2999,7 @@
     </row>
     <row r="7" spans="2:7" ht="13.5" customHeight="1">
       <c r="B7" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>85</v>
@@ -2945,7 +3013,7 @@
     </row>
     <row r="8" spans="2:7" ht="14.25">
       <c r="B8" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>85</v>
@@ -2959,7 +3027,7 @@
     </row>
     <row r="9" spans="2:7" ht="14.25">
       <c r="B9" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>85</v>
@@ -2973,7 +3041,7 @@
     </row>
     <row r="10" spans="2:7" ht="14.25">
       <c r="B10" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>63</v>
@@ -2987,7 +3055,7 @@
     </row>
     <row r="11" spans="2:7" ht="14.25">
       <c r="B11" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>63</v>
@@ -3001,7 +3069,7 @@
     </row>
     <row r="12" spans="2:7" ht="14.25">
       <c r="B12" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>63</v>
@@ -3015,7 +3083,7 @@
     </row>
     <row r="13" spans="2:7" ht="14.25">
       <c r="B13" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>63</v>
@@ -3029,7 +3097,7 @@
     </row>
     <row r="14" spans="2:7" ht="14.25">
       <c r="B14" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>26</v>
@@ -3043,7 +3111,7 @@
     </row>
     <row r="15" spans="2:7" ht="14.25">
       <c r="B15" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>26</v>
@@ -3057,7 +3125,7 @@
     </row>
     <row r="16" spans="2:7" ht="14.25">
       <c r="B16" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>26</v>
@@ -3071,7 +3139,7 @@
     </row>
     <row r="17" spans="2:5" ht="14.25">
       <c r="B17" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>26</v>
@@ -3085,7 +3153,7 @@
     </row>
     <row r="18" spans="2:5" ht="14.25">
       <c r="B18" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>26</v>
@@ -3099,7 +3167,7 @@
     </row>
     <row r="19" spans="2:5" ht="14.25">
       <c r="B19" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>26</v>
@@ -3113,7 +3181,7 @@
     </row>
     <row r="20" spans="2:5" ht="14.25">
       <c r="B20" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>26</v>
@@ -3127,7 +3195,7 @@
     </row>
     <row r="21" spans="2:5" ht="14.25">
       <c r="B21" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>26</v>
@@ -3141,7 +3209,7 @@
     </row>
     <row r="22" spans="2:5" ht="228">
       <c r="B22" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>89</v>
@@ -3150,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="14.25">

--- a/NVMConfig/res/NVM_Table.xlsx
+++ b/NVMConfig/res/NVM_Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="9" r:id="rId1"/>
@@ -1531,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2104,7 +2104,7 @@
   <dimension ref="B2:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2930,8 +2930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/NVMConfig/res/NVM_Table.xlsx
+++ b/NVMConfig/res/NVM_Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="9" r:id="rId1"/>
@@ -566,7 +566,7 @@
 0xFF860080, 0xFF860080, 0xFF860080, 0xFF860080, 
 0xFF860080, 0xFF860080, 0xFF860080, 0xFF860080, 
 0xFF860080, 0xFF860080, 0xFF860080, 0xFF860080, 
-0xFF860080, 0xFF860080, 0xFF860080, 0xFF860080</t>
+0xFF860080, 0xFF860080, 0xFF860080, 0xFF860080,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1531,7 +1531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -2930,8 +2930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/NVMConfig/res/NVM_Table.xlsx
+++ b/NVMConfig/res/NVM_Table.xlsx
@@ -565,8 +565,8 @@
 0xFF860080, 0xFF860080, 0xFF860080, 0xFF860080, 
 0xFF860080, 0xFF860080, 0xFF860080, 0xFF860080, 
 0xFF860080, 0xFF860080, 0xFF860080, 0xFF860080, 
-0xFF860080, 0xFF860080, 0xFF860080, 0xFF860080, 
-0xFF860080, 0xFF860080, 0xFF860080, 0xFF860080,</t>
+0xFF860080, 0xFF860080, 0xFF860080, 0xFF860080,,,
+0xFF860080, 0xFF860080, 0xFF860080, 0xFF860080,,,,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2930,8 +2930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/NVMConfig/res/NVM_Table.xlsx
+++ b/NVMConfig/res/NVM_Table.xlsx
@@ -2931,7 +2931,7 @@
   <dimension ref="B2:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/NVMConfig/res/NVM_Table.xlsx
+++ b/NVMConfig/res/NVM_Table.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="9" r:id="rId1"/>
     <sheet name="ConstNvmMapSection" sheetId="2" r:id="rId2"/>
     <sheet name="VariableNvmMapSection" sheetId="5" r:id="rId3"/>
-    <sheet name="FblNvmMapSection" sheetId="6" r:id="rId4"/>
-    <sheet name="DtcNvmMapSection" sheetId="7" r:id="rId5"/>
-    <sheet name="OdoNvmMapSection" sheetId="8" r:id="rId6"/>
+    <sheet name="DtcNvmMapSection" sheetId="7" r:id="rId4"/>
+    <sheet name="OdoNvmMapSection" sheetId="8" r:id="rId5"/>
+    <sheet name="FblNvmMapSection" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="166">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,10 +93,6 @@
   </si>
   <si>
     <t>Author: Jiang Yuchang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_RESET_REASON_HISTORY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -239,18 +235,10 @@
     <t>174, 241, 343, 167, 425, 111, 499, 56, 526, 36, 559, 18</t>
   </si>
   <si>
-    <t>NVM_VarCfg_5007_U8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x3D, 0xD5, 0xC2, 0xFD, 0x4A, 0xFB, 0x18, 0xE0, 0x20, 0xFF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NVM_VarCfg_5024_U8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int8[3]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,98 +247,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NVM_VarCfg_5002_U16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_VarCfg_5003_U16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_UpOpVol_CutOff_Threshold_U8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NVM_UpOpVol_Recovery_Threshold_U8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_LoOpVol_CutOff_Threshold_U8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_LoOpVol_Recovery_Threshold_U8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_Night_Mode_BL_Coefficient_U8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_Tacho_Idle_rpm_up_Threshold_U8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_Tacho_Idle_rpm_down_Threshold_U8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_Tacho_Idle_rpm_time_U8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">NVM_Fuel_From_E_to_F_Damping_U8 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_Fast_Fuel_VehSpd_U8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_AFE_DTE_Update_Duration_U8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_IFE_Update_Duration_U8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_N_Gear_Filter_time_U8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_R_Gear_Filter_time_U8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_Not_R_and_N_Gear_Filter_time_U8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_Illumi_Popup_Invalid_input_time_U8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_ODO_Incremental_U8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_Door_Open_Speed_Enable_U8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_Door_Open_Speed_Disable_U8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_Warning_and_Time_Cfg_U8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int8[5]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -375,7 +275,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int32[32]</t>
+    <t>0xFF860080</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -495,18 +395,118 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>NVM_RESET_REASON_HISTORY_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_VarCfg_5007_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_VarCfg_5024_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_VarCfg_5002_U16_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_VarCfg_5003_U16_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_UpOpVol_CutOff_Threshold_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_UpOpVol_Recovery_Threshold_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_LoOpVol_CutOff_Threshold_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_LoOpVol_Recovery_Threshold_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_Night_Mode_BL_Coefficient_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_Tacho_Idle_rpm_up_Threshold_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_Tacho_Idle_rpm_down_Threshold_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_Tacho_Idle_rpm_time_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_Fuel_From_E_to_F_Damping_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_Fast_Fuel_VehSpd_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_AFE_DTE_Update_Duration_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_IFE_Update_Duration_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_N_Gear_Filter_time_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_R_Gear_Filter_time_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_Not_R_and_N_Gear_Filter_time_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_Illumi_Popup_Invalid_input_time_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_ODO_Incremental_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_Door_Open_Speed_Enable_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_Door_Open_Speed_Disable_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_Warning_and_Time_Cfg_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>NVM_TripARstOdo_U32_ODO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>NVM_TripBRstOdo_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>NVM_SiaRstOdo_U32_ODO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NVM_TripBRstOdo_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NVM_OdoCfg_5001_U8_ODO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -555,18 +555,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NVM_EEL_ODO_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xFF860080, 0xFF860080, 0xFF860080, 0xFF860080, 
-0xFF860080, 0xFF860080, 0xFF860080, 0xFF860080, 
-0xFF860080, 0xFF860080, 0xFF860080, 0xFF860080, 
-0xFF860080, 0xFF860080, 0xFF860080, 0xFF860080, 
-0xFF860080, 0xFF860080, 0xFF860080, 0xFF860080, 
-0xFF860080, 0xFF860080, 0xFF860080, 0xFF860080, 
-0xFF860080, 0xFF860080, 0xFF860080, 0xFF860080,,,
-0xFF860080, 0xFF860080, 0xFF860080, 0xFF860080,,,,</t>
+    <t>NVM_EEL_ODO1_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO2_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO3_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO4_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO5_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO6_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO7_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO8_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO9_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO10_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO11_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO12_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO13_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO14_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO15_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO16_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO17_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO18_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO19_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO20_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO21_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO22_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO23_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO24_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO25_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO26_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO27_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO28_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO29_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO30_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO31_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO32_U32_ODO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -963,74 +1076,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1091,7 +1136,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1531,8 +1576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1570,7 +1615,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="30.75" thickBot="1">
@@ -1579,7 +1624,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="G5" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15">
@@ -1599,7 +1644,7 @@
     </row>
     <row r="7" spans="2:8" ht="39.75" customHeight="1">
       <c r="B7" s="6" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>4</v>
@@ -1608,13 +1653,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="21"/>
     </row>
     <row r="8" spans="2:8" ht="28.5">
       <c r="B8" s="6" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>4</v>
@@ -1623,194 +1668,194 @@
         <v>1</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="14.25">
       <c r="B9" s="10" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="17">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" s="17">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="42.75">
       <c r="B10" s="10" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" s="17">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="28.5">
       <c r="B11" s="10" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="17">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="D11" s="17">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="28.5">
       <c r="B12" s="10" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="17">
         <v>1</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="28.5">
       <c r="B13" s="10" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="17">
+        <v>1</v>
+      </c>
+      <c r="E13" s="30" t="s">
         <v>33</v>
-      </c>
-      <c r="D13" s="17">
-        <v>1</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="14.25">
       <c r="B14" s="10" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="17">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="D14" s="17">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="14.25">
       <c r="B15" s="10" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="17">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="D15" s="17">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="42.75">
       <c r="B16" s="10" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="17">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="D16" s="17">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="14.25">
       <c r="B17" s="10" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="D17" s="17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="28.5">
       <c r="B18" s="10" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="17">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="D18" s="17">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="28.5">
       <c r="B19" s="10" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="17">
+        <v>1</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>33</v>
-      </c>
-      <c r="D19" s="17">
-        <v>1</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="14.25">
       <c r="B20" s="10" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="17">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="D20" s="17">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="42.75">
       <c r="B21" s="10" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="17">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="D21" s="17">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="28.5">
       <c r="B22" s="6" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>4</v>
@@ -1819,43 +1864,43 @@
         <v>1</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="14.25">
       <c r="B23" s="6" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="17">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="D23" s="17">
-        <v>1</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="14.25">
       <c r="B24" s="6" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="17">
+        <v>1</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="D24" s="17">
-        <v>1</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="14.25">
       <c r="B25" s="6" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" s="17">
         <v>1</v>
@@ -1866,38 +1911,38 @@
     </row>
     <row r="26" spans="2:5" ht="14.25">
       <c r="B26" s="6" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="17">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="D26" s="17">
-        <v>1</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="14.25">
       <c r="B27" s="6" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" s="17">
         <v>1</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="14.25">
       <c r="B28" s="6" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="17">
         <v>1</v>
@@ -1908,38 +1953,38 @@
     </row>
     <row r="29" spans="2:5" ht="14.25">
       <c r="B29" s="6" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="17">
+        <v>1</v>
+      </c>
+      <c r="E29" s="31" t="s">
         <v>48</v>
-      </c>
-      <c r="D29" s="17">
-        <v>1</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="14.25">
       <c r="B30" s="10" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30" s="17">
         <v>1</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="14.25">
       <c r="B31" s="10" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="17">
         <v>1</v>
@@ -1950,38 +1995,38 @@
     </row>
     <row r="32" spans="2:5" ht="14.25">
       <c r="B32" s="10" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32" s="17">
         <v>1</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="14.25">
       <c r="B33" s="10" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D33" s="17">
         <v>1</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="14.25">
       <c r="B34" s="10" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34" s="17">
         <v>1</v>
@@ -1992,16 +2037,16 @@
     </row>
     <row r="35" spans="2:5" ht="28.5">
       <c r="B35" s="10" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="17">
+        <v>1</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="D35" s="17">
-        <v>1</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="14.25">
@@ -2104,7 +2149,7 @@
   <dimension ref="B2:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2143,7 +2188,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30.75" thickBot="1">
@@ -2152,7 +2197,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="G5" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="14.25">
@@ -2171,10 +2216,10 @@
     </row>
     <row r="7" spans="2:7" ht="18" customHeight="1">
       <c r="B7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="D7" s="17">
         <v>1</v>
@@ -2185,38 +2230,38 @@
     </row>
     <row r="8" spans="2:7" ht="28.5">
       <c r="B8" s="6" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="17">
         <v>1</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="14.25">
       <c r="B9" s="6" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D9" s="17">
         <v>1</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="14.25">
       <c r="B10" s="6" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="17">
         <v>1</v>
@@ -2227,10 +2272,10 @@
     </row>
     <row r="11" spans="2:7" ht="14.25">
       <c r="B11" s="6" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="17">
         <v>1</v>
@@ -2241,10 +2286,10 @@
     </row>
     <row r="12" spans="2:7" ht="14.25">
       <c r="B12" s="6" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D12" s="17">
         <v>1</v>
@@ -2255,10 +2300,10 @@
     </row>
     <row r="13" spans="2:7" ht="14.25">
       <c r="B13" s="6" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D13" s="17">
         <v>1</v>
@@ -2269,10 +2314,10 @@
     </row>
     <row r="14" spans="2:7" ht="14.25">
       <c r="B14" s="6" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D14" s="17">
         <v>1</v>
@@ -2283,10 +2328,10 @@
     </row>
     <row r="15" spans="2:7" ht="14.25">
       <c r="B15" s="6" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D15" s="17">
         <v>1</v>
@@ -2297,10 +2342,10 @@
     </row>
     <row r="16" spans="2:7" ht="14.25">
       <c r="B16" s="6" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D16" s="17">
         <v>1</v>
@@ -2311,10 +2356,10 @@
     </row>
     <row r="17" spans="2:5" ht="14.25">
       <c r="B17" s="6" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D17" s="17">
         <v>1</v>
@@ -2325,10 +2370,10 @@
     </row>
     <row r="18" spans="2:5" ht="14.25">
       <c r="B18" s="10" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D18" s="17">
         <v>1</v>
@@ -2339,10 +2384,10 @@
     </row>
     <row r="19" spans="2:5" ht="14.25">
       <c r="B19" s="10" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D19" s="17">
         <v>1</v>
@@ -2353,10 +2398,10 @@
     </row>
     <row r="20" spans="2:5" ht="14.25">
       <c r="B20" s="10" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D20" s="17">
         <v>1</v>
@@ -2367,10 +2412,10 @@
     </row>
     <row r="21" spans="2:5" ht="14.25">
       <c r="B21" s="10" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D21" s="17">
         <v>1</v>
@@ -2381,10 +2426,10 @@
     </row>
     <row r="22" spans="2:5" ht="14.25">
       <c r="B22" s="10" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D22" s="17">
         <v>1</v>
@@ -2395,10 +2440,10 @@
     </row>
     <row r="23" spans="2:5" ht="14.25">
       <c r="B23" s="10" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D23" s="17">
         <v>1</v>
@@ -2409,10 +2454,10 @@
     </row>
     <row r="24" spans="2:5" ht="14.25">
       <c r="B24" s="10" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D24" s="17">
         <v>1</v>
@@ -2423,10 +2468,10 @@
     </row>
     <row r="25" spans="2:5" ht="14.25">
       <c r="B25" s="10" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D25" s="17">
         <v>1</v>
@@ -2437,10 +2482,10 @@
     </row>
     <row r="26" spans="2:5" ht="14.25">
       <c r="B26" s="10" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D26" s="17">
         <v>1</v>
@@ -2451,10 +2496,10 @@
     </row>
     <row r="27" spans="2:5" ht="14.25">
       <c r="B27" s="10" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D27" s="17">
         <v>1</v>
@@ -2465,10 +2510,10 @@
     </row>
     <row r="28" spans="2:5" ht="14.25">
       <c r="B28" s="10" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D28" s="17">
         <v>1</v>
@@ -2479,10 +2524,10 @@
     </row>
     <row r="29" spans="2:5" ht="14.25">
       <c r="B29" s="10" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D29" s="17">
         <v>1</v>
@@ -2493,10 +2538,10 @@
     </row>
     <row r="30" spans="2:5" ht="14.25">
       <c r="B30" s="10" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D30" s="17">
         <v>1</v>
@@ -2507,16 +2552,16 @@
     </row>
     <row r="31" spans="2:5" ht="14.25">
       <c r="B31" s="10" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="D31" s="17">
         <v>1</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="14.25">
@@ -2561,192 +2606,7 @@
   <dimension ref="B2:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="42.5" customWidth="1"/>
-    <col min="3" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="37.375" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
-    <col min="7" max="7" width="24.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" ht="14.25">
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1">
-        <f>VariableNvmMapSection!C3+VariableNvmMapSection!C2</f>
-        <v>1280</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="2:7" ht="14.25">
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
-        <v>256</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="2:7" ht="15">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="G4" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="30.75" thickBot="1">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="G5" s="29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="14.25">
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="39.75" customHeight="1">
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="2:7" ht="14.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="2:7" ht="14.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="2:7" ht="14.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="2:7" ht="14.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="2:7" ht="14.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="2:7" ht="14.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="2:7" ht="14.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="2:7" ht="14.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="2:7" ht="14.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="2:5" ht="14.25">
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="2:5" ht="14.25">
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="2:5" ht="14.25">
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="2:5" ht="14.25">
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="2:5" ht="14.25">
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="2:5" ht="14.25">
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" spans="2:5" ht="14.25">
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" spans="2:5" ht="15" thickBot="1">
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="15"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2763,8 +2623,8 @@
         <v>11</v>
       </c>
       <c r="C2" s="1">
-        <f>FblNvmMapSection!C3+FblNvmMapSection!C2</f>
-        <v>1536</v>
+        <f>VariableNvmMapSection!C3+VariableNvmMapSection!C2</f>
+        <v>1280</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
@@ -2785,7 +2645,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30.75" thickBot="1">
@@ -2794,7 +2654,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="G5" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="14.25">
@@ -2926,12 +2786,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G39"/>
+  <dimension ref="B2:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2950,7 +2810,7 @@
       </c>
       <c r="C2" s="1">
         <f>DtcNvmMapSection!C3+DtcNvmMapSection!C2</f>
-        <v>1872</v>
+        <v>1616</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
@@ -2971,7 +2831,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30.75" thickBot="1">
@@ -2980,7 +2840,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="G5" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="14.25">
@@ -3002,41 +2862,41 @@
         <v>119</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="D7" s="17">
         <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="14.25">
       <c r="B8" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="D8" s="17">
         <v>1</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="14.25">
       <c r="B9" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="D9" s="17">
         <v>1</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="14.25">
@@ -3044,13 +2904,13 @@
         <v>122</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D10" s="17">
         <v>1</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="14.25">
@@ -3058,13 +2918,13 @@
         <v>123</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D11" s="17">
         <v>1</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="14.25">
@@ -3072,13 +2932,13 @@
         <v>124</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D12" s="17">
         <v>1</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="14.25">
@@ -3086,13 +2946,13 @@
         <v>125</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D13" s="17">
         <v>1</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="14.25">
@@ -3100,13 +2960,13 @@
         <v>126</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="17">
         <v>1</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="14.25">
@@ -3114,13 +2974,13 @@
         <v>127</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="17">
         <v>1</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="14.25">
@@ -3128,13 +2988,13 @@
         <v>128</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="17">
         <v>1</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="14.25">
@@ -3142,13 +3002,13 @@
         <v>129</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="17">
         <v>1</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="14.25">
@@ -3156,13 +3016,13 @@
         <v>130</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="17">
         <v>1</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="14.25">
@@ -3170,13 +3030,13 @@
         <v>131</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="17">
         <v>1</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="14.25">
@@ -3184,13 +3044,13 @@
         <v>132</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="17">
         <v>1</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="14.25">
@@ -3198,130 +3058,755 @@
         <v>133</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="17">
         <v>1</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="228">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="14.25">
       <c r="B22" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="D22" s="17">
         <v>1</v>
       </c>
       <c r="E22" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="14.25">
+      <c r="B23" s="6" t="s">
         <v>135</v>
       </c>
+      <c r="C23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="17">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="14.25">
+      <c r="B24" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="17">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="14.25">
+      <c r="B25" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="17">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="14.25">
+      <c r="B26" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="17">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="14.25">
+      <c r="B27" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="17">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="14.25">
+      <c r="B28" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="17">
+        <v>1</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="14.25">
+      <c r="B29" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="17">
+        <v>1</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="14.25">
+      <c r="B30" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="17">
+        <v>1</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="14.25">
+      <c r="B31" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="17">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="14.25">
+      <c r="B32" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="17">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="14.25">
+      <c r="B33" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="17">
+        <v>1</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="14.25">
+      <c r="B34" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="17">
+        <v>1</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="14.25">
+      <c r="B35" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="17">
+        <v>1</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="14.25">
+      <c r="B36" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="17">
+        <v>1</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="14.25">
+      <c r="B37" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="17">
+        <v>1</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="14.25">
+      <c r="B38" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="17">
+        <v>1</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="14.25">
+      <c r="B39" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="17">
+        <v>1</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="14.25">
+      <c r="B40" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="17">
+        <v>1</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="14.25">
+      <c r="B41" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="17">
+        <v>1</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="14.25">
+      <c r="B42" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="17">
+        <v>1</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="14.25">
+      <c r="B43" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="17">
+        <v>1</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="14.25">
+      <c r="B44" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="17">
+        <v>1</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="14.25">
+      <c r="B45" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="17">
+        <v>1</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="14.25">
+      <c r="B46" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="17">
+        <v>1</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="14.25">
+      <c r="B47" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="17">
+        <v>1</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="14.25">
+      <c r="B48" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="17">
+        <v>1</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="14.25">
+      <c r="B49" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="17">
+        <v>1</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="14.25">
+      <c r="B50" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="17">
+        <v>1</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="14.25">
+      <c r="B51" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="17">
+        <v>1</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="14.25">
+      <c r="B52" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="17">
+        <v>1</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="14.25">
+      <c r="B53" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="17">
+        <v>1</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="14.25">
+      <c r="B54" s="6"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="9"/>
+    </row>
+    <row r="55" spans="2:5" ht="14.25">
+      <c r="B55" s="6"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="9"/>
+    </row>
+    <row r="56" spans="2:5" ht="14.25">
+      <c r="B56" s="6"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="9"/>
+    </row>
+    <row r="57" spans="2:5" ht="14.25">
+      <c r="B57" s="6"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="9"/>
+    </row>
+    <row r="58" spans="2:5" ht="14.25">
+      <c r="B58" s="6"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="9"/>
+    </row>
+    <row r="59" spans="2:5" ht="14.25">
+      <c r="B59" s="6"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="9"/>
+    </row>
+    <row r="60" spans="2:5" ht="14.25">
+      <c r="B60" s="6"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="9"/>
+    </row>
+    <row r="61" spans="2:5" ht="14.25">
+      <c r="B61" s="6"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="9"/>
+    </row>
+    <row r="62" spans="2:5" ht="14.25">
+      <c r="B62" s="6"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="9"/>
+    </row>
+    <row r="63" spans="2:5" ht="14.25">
+      <c r="B63" s="6"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="9"/>
+    </row>
+    <row r="64" spans="2:5" ht="14.25">
+      <c r="B64" s="10"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="12"/>
+    </row>
+    <row r="65" spans="2:5" ht="14.25">
+      <c r="B65" s="10"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="12"/>
+    </row>
+    <row r="66" spans="2:5" ht="14.25">
+      <c r="B66" s="10"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="12"/>
+    </row>
+    <row r="67" spans="2:5" ht="14.25">
+      <c r="B67" s="10"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="12"/>
+    </row>
+    <row r="68" spans="2:5" ht="14.25">
+      <c r="B68" s="10"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="12"/>
+    </row>
+    <row r="69" spans="2:5" ht="14.25">
+      <c r="B69" s="10"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="12"/>
+    </row>
+    <row r="70" spans="2:5" ht="14.25">
+      <c r="B70" s="10"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="12"/>
+    </row>
+    <row r="71" spans="2:5" ht="15" thickBot="1">
+      <c r="B71" s="13"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="42.5" customWidth="1"/>
+    <col min="3" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="37.375" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="24.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="14.25">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1">
+        <f>OdoNvmMapSection!C3+OdoNvmMapSection!C2</f>
+        <v>1792</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:7" ht="14.25">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>256</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:7" ht="15">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="30.75" thickBot="1">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="G5" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="14.25">
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="39.75" customHeight="1">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="2:7" ht="14.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="2:7" ht="14.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="2:7" ht="14.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="2:7" ht="14.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="2:7" ht="14.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="2:7" ht="14.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="2:7" ht="14.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="2:7" ht="14.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="2:7" ht="14.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="2:5" ht="14.25">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="2:5" ht="14.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="2:5" ht="14.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="2:5" ht="14.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="2:5" ht="14.25">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="2:5" ht="14.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="2:5" ht="14.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="2:5" ht="14.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="2:5" ht="14.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="2:5" ht="14.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="2:5" ht="14.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="2:5" ht="14.25">
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="2:5" ht="14.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="2:5" ht="14.25">
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="2:5" ht="14.25">
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="2:5" ht="14.25">
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="12"/>
-    </row>
-    <row r="33" spans="2:5" ht="14.25">
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="12"/>
-    </row>
-    <row r="34" spans="2:5" ht="14.25">
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="12"/>
-    </row>
-    <row r="35" spans="2:5" ht="14.25">
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="12"/>
-    </row>
-    <row r="36" spans="2:5" ht="14.25">
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="12"/>
-    </row>
-    <row r="37" spans="2:5" ht="14.25">
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="12"/>
-    </row>
-    <row r="38" spans="2:5" ht="14.25">
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="12"/>
-    </row>
-    <row r="39" spans="2:5" ht="15" thickBot="1">
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="15"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="2:5" ht="15" thickBot="1">
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/NVMConfig/res/NVM_Table.xlsx
+++ b/NVMConfig/res/NVM_Table.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="9" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="OdoNvmMapSection" sheetId="8" r:id="rId5"/>
     <sheet name="FblNvmMapSection" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="213">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,14 +93,6 @@
   </si>
   <si>
     <t>Author: Jiang Yuchang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int8[200]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x01, 0x00, 0x00, 0x00, 0xFF, 0xFF, 0xFF, 0xFF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -128,558 +120,671 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>int8[4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00, 0x00, 0x00, 0x00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int8[17]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int8[9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x49, 0x43, 0x4D, 0x20, 0x20, 0x20, 0x20, 0x20, 0x20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int8[10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int8[16]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int8[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00, 0x00, 0x00, 0x00, 0x00, 0x00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int8[20]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x5A, 0x5A, 0xFF, 0xFF, 0xFF, 0xFF, 0xFF, 0xFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int16[2]</t>
+  </si>
+  <si>
+    <t>0, 2400</t>
+  </si>
+  <si>
+    <t>int8</t>
+  </si>
+  <si>
+    <t>int16[5]</t>
+  </si>
+  <si>
+    <t>0, 1000, 4000, 6500, 8000</t>
+  </si>
+  <si>
+    <t>24, 294, 1104, 1779, 2184</t>
+  </si>
+  <si>
+    <t>int16[6]</t>
+  </si>
+  <si>
+    <t>9000, 12000, 14000, 15500, 17000</t>
+  </si>
+  <si>
+    <t>24,564, 564, 969, 1104</t>
+  </si>
+  <si>
+    <t>5407, 10260, 15112, 29384, 43371, 61924</t>
+  </si>
+  <si>
+    <t>24, 159, 294, 564, 834, 1104</t>
+  </si>
+  <si>
+    <t>int16[12]</t>
+  </si>
+  <si>
+    <t>174, 241, 343, 167, 425, 111, 499, 56, 526, 36, 559, 18</t>
+  </si>
+  <si>
+    <t>int8[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00, 0x00, 0x00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xFF, 0xFF, 0xFF, 0xFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xFF860080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xD5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xC2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xFD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x4A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xFB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xE0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xA2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xF5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xA5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00,0x00,0x00,0x00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0xFF, 0xFF, 0x10, 0x08, 0x16, 0x01, 0x00, 0x00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int8[4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00, 0x00, 0x00, 0x00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int8[17]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int8[9]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x49, 0x43, 0x4D, 0x20, 0x20, 0x20, 0x20, 0x20, 0x20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int8[10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int8[16]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int8[6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00, 0x00, 0x00, 0x00, 0x00, 0x00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int8[20]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00, 0x00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x5A, 0x5A, 0xFF, 0xFF, 0xFF, 0xFF, 0xFF, 0xFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int16[2]</t>
-  </si>
-  <si>
-    <t>0, 2400</t>
-  </si>
-  <si>
-    <t>int8</t>
-  </si>
-  <si>
-    <t>int16[5]</t>
-  </si>
-  <si>
-    <t>0, 1000, 4000, 6500, 8000</t>
-  </si>
-  <si>
-    <t>24, 294, 1104, 1779, 2184</t>
-  </si>
-  <si>
-    <t>int16[6]</t>
-  </si>
-  <si>
-    <t>9000, 12000, 14000, 15500, 17000</t>
-  </si>
-  <si>
-    <t>24,564, 564, 969, 1104</t>
-  </si>
-  <si>
-    <t>5407, 10260, 15112, 29384, 43371, 61924</t>
-  </si>
-  <si>
-    <t>24, 159, 294, 564, 834, 1104</t>
-  </si>
-  <si>
-    <t>int16[12]</t>
-  </si>
-  <si>
-    <t>174, 241, 343, 167, 425, 111, 499, 56, 526, 36, 559, 18</t>
-  </si>
-  <si>
-    <t>0x3D, 0xD5, 0xC2, 0xFD, 0x4A, 0xFB, 0x18, 0xE0, 0x20, 0xFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int8[3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00, 0x00, 0x00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int8[5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xA2, 0xF5, 0xA5, 0x10, 0x1F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>0x01, 0x00, 0x00, 0x00, 0xFF, 0xFF, 0xFF, 0xFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_PROD_VERSION_INFO1_U8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_PROD_VERSION_INFO2_U8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F100_U8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F190_U8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F187_U8</t>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F197_U8</t>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F18A_U8</t>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F193_U8</t>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F195_U8</t>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F18C_U8</t>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F199_U8</t>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F184_U8</t>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F150_U8</t>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F180_U8</t>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F1A8_U8</t>
+  </si>
+  <si>
+    <t>NVM_MagicCfg_U8</t>
+  </si>
+  <si>
+    <t>IN_TAB_SPD</t>
+  </si>
+  <si>
+    <t>OUT_TAB_SPD</t>
+  </si>
+  <si>
+    <t>RO_VAL_G4</t>
+  </si>
+  <si>
+    <t>IN_TAB_TACH</t>
+  </si>
+  <si>
+    <t>OUT_TAB_TACH</t>
+  </si>
+  <si>
+    <t>RO_VAL_G1</t>
+  </si>
+  <si>
+    <t>IN_TAB_TEMP</t>
+  </si>
+  <si>
+    <t>OUT_TAB_TEMP</t>
+  </si>
+  <si>
+    <t>RO_VAL_G2</t>
+  </si>
+  <si>
+    <t>IN_TAB_OIL</t>
+  </si>
+  <si>
+    <t>OUT_TAB_OIL</t>
+  </si>
+  <si>
+    <t>RO_VAL_G3</t>
+  </si>
+  <si>
+    <t>FuelSender_Table</t>
+  </si>
+  <si>
+    <t>NVMCfg_5007_BYTE1_U8</t>
+  </si>
+  <si>
+    <t>NVMCfg_5007_BYTE2_U8</t>
+  </si>
+  <si>
+    <t>NVMCfg_5007_BYTE3_U8</t>
+  </si>
+  <si>
+    <t>NVMCfg_5007_BYTE4_U8</t>
+  </si>
+  <si>
+    <t>NVMCfg_5007_BYTE5_U8</t>
+  </si>
+  <si>
+    <t>NVMCfg_5007_BYTE6_U8</t>
+  </si>
+  <si>
+    <t>NVMCfg_5007_BYTE7_U8</t>
+  </si>
+  <si>
+    <t>NVMCfg_5007_BYTE8_U8</t>
+  </si>
+  <si>
+    <t>NVMCfg_5007_BYTE9_U8</t>
+  </si>
+  <si>
+    <t>NVMCfg_5007_BYTE10_U8</t>
+  </si>
+  <si>
+    <t>NVM_OEMCFG_OFFSET_U8</t>
+  </si>
+  <si>
+    <t>NVM_OEMCFG_RST_CNT_U8</t>
+  </si>
+  <si>
+    <t>NVMCfg_5024_U8</t>
+  </si>
+  <si>
+    <t>NVMCfg_5002_U16</t>
+  </si>
+  <si>
+    <t>NVMCfg_5003_U16</t>
+  </si>
+  <si>
+    <t>NVM_OEMCFG_ETC_BYTE1_U8</t>
+  </si>
+  <si>
+    <t>NVM_OEMCFG_ETC_BYTE2_U8</t>
+  </si>
+  <si>
+    <t>NVM_OEMCFG_ETC_BYTE3_U8</t>
+  </si>
+  <si>
+    <t>NVM_OEMCFG_ETC_BYTE4_U8</t>
+  </si>
+  <si>
+    <t>NVM_OEMCFG_ETC_BYTE5_U8</t>
+  </si>
+  <si>
+    <t>NVM_OEMCFG_ETC_BYTE6_U8</t>
+  </si>
+  <si>
+    <t>NVM_OEMCFG_ETC_BYTE7_U8</t>
+  </si>
+  <si>
+    <t>NVM_OEMCFG_ETC_BYTE8_U8</t>
+  </si>
+  <si>
+    <t>NVM_UpOpVol_CutOff_Threshold_U8</t>
+  </si>
+  <si>
+    <t>NVM_UpOpVol_Recovery_Threshold_U8</t>
+  </si>
+  <si>
+    <t>NVM_LoOpVol_CutOff_Threshold_U8</t>
+  </si>
+  <si>
+    <t>NVM_LoOpVol_Recovery_Threshold_U8</t>
+  </si>
+  <si>
+    <t>NVM_Night_Mode_BL_Coefficient_U8</t>
+  </si>
+  <si>
+    <t>NVM_Tacho_Idle_rpm_up_Threshold_U8</t>
+  </si>
+  <si>
+    <t>NVM_Tacho_Idle_rpm_down_Threshold_U8</t>
+  </si>
+  <si>
+    <t>NVM_Tacho_Idle_rpm_time_U8</t>
+  </si>
+  <si>
+    <t>NVM_Fuel_From_E_to_F_Damping_U8</t>
+  </si>
+  <si>
+    <t>NVM_Fast_Fuel_VehSpd_U8</t>
+  </si>
+  <si>
+    <t>NVM_AFE_DTE_Update_Duration_U8</t>
+  </si>
+  <si>
+    <t>NVM_IFE_Update_Duration_U8</t>
+  </si>
+  <si>
+    <t>NVM_N_Gear_Filter_time_U8</t>
+  </si>
+  <si>
+    <t>NVM_R_Gear_Filter_time_U8</t>
+  </si>
+  <si>
+    <t>NVM_Not_R_and_N_Gear_Filter_time_U8</t>
+  </si>
+  <si>
+    <t>NVM_Illumi_Popup_Invalid_input_time_U8</t>
+  </si>
+  <si>
+    <t>NVM_ODO_Incremental_U8</t>
+  </si>
+  <si>
+    <t>NVM_Door_Open_Speed_Enable_U8</t>
+  </si>
+  <si>
+    <t>NVM_Door_Open_Speed_Disable_U8</t>
+  </si>
+  <si>
+    <t>NVM_Chime_Interval_BL_TurnOnOff_Duration_U8</t>
+  </si>
+  <si>
+    <t>NVM_Warning_and_Time_Cfg_U8</t>
+  </si>
+  <si>
+    <t>NVM_ICM_Sleep_Time_TFT_Sleep_Time_U8</t>
+  </si>
+  <si>
+    <t>NVM_ICM_Alert_Volume_Theme_Street_Mode_Relax_Time_U8</t>
+  </si>
+  <si>
+    <t>NVM_ICM_Thruway_Mode_Relax_Time_Relax_Switch_U8</t>
+  </si>
+  <si>
+    <t>NVM_TripARstOdo_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_TripBRstOdo_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_SiaRstOdo_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_OdoCfg_5001_U8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_OdoCfg_OFFSET_U8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_OdoCfg_RST_CNT_U8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_OdoCfg_BACKUP_CNT_U8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_RsvdCfg1_U8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_RsvdCfg2_U8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_RsvdCfg3_U8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO1_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO2_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO3_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO4_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO5_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO6_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO7_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO8_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO9_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO10_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO11_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO12_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO13_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO14_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO15_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO16_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO17_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO18_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO19_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO20_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO21_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO22_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO23_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO24_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO25_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO26_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO27_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO28_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO29_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO30_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO31_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO32_U32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_RESET_REASON_HISTORY_INDEX</t>
   </si>
   <si>
     <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xFF, 0xFF, 0xFF, 0xFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xFF860080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_PROD_VERSION_INFO1_U8_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_PROD_VERSION_INFO2_U8_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F100_U8_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F190_U8_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F187_U8_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F197_U8_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F18A_U8_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F193_U8_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F195_U8_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F18C_U8_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F199_U8_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F184_U8_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F150_U8_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F180_U8_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F1A8_U8_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_MagicCfg_U8_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IN_TAB_SPD_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OUT_TAB_SPD_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RO_VAL_G4_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IN_TAB_TACH_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OUT_TAB_TACH_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RO_VAL_G1_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IN_TAB_TEMP_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OUT_TAB_TEMP_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RO_VAL_G2_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IN_TAB_OIL_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OUT_TAB_OIL_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RO_VAL_G3_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FuelSender_Table_CONST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_RESET_REASON_HISTORY_VAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_VarCfg_5007_U8_VAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_VarCfg_5024_U8_VAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_VarCfg_5002_U16_VAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_VarCfg_5003_U16_VAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_UpOpVol_CutOff_Threshold_U8_VAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_UpOpVol_Recovery_Threshold_U8_VAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_LoOpVol_CutOff_Threshold_U8_VAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_LoOpVol_Recovery_Threshold_U8_VAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_Night_Mode_BL_Coefficient_U8_VAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_Tacho_Idle_rpm_up_Threshold_U8_VAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_Tacho_Idle_rpm_down_Threshold_U8_VAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_Tacho_Idle_rpm_time_U8_VAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_Fuel_From_E_to_F_Damping_U8_VAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_Fast_Fuel_VehSpd_U8_VAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_AFE_DTE_Update_Duration_U8_VAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_IFE_Update_Duration_U8_VAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_N_Gear_Filter_time_U8_VAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_R_Gear_Filter_time_U8_VAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_Not_R_and_N_Gear_Filter_time_U8_VAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_Illumi_Popup_Invalid_input_time_U8_VAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_ODO_Incremental_U8_VAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_Door_Open_Speed_Enable_U8_VAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_Door_Open_Speed_Disable_U8_VAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_Warning_and_Time_Cfg_U8_VAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_TripARstOdo_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_TripBRstOdo_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_SiaRstOdo_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_OdoCfg_5001_U8_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_OdoCfg_OFFSET_U8_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_OdoCfg_RST_CNT_U8_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_RsvdCfg1_U8_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_RsvdCfg2_U8_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_RsvdCfg3_U8_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_RsvdCfg4_U8_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_RsvdCfg5_U8_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_RsvdCfg6_U8_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_RsvdCfg7_U8_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_RsvdCfg8_U8_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_RsvdCfg9_U8_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO1_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO2_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO3_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO4_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO5_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO6_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO7_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO8_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO9_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO10_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO11_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO12_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO13_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO14_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO15_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO16_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO17_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO18_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO19_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO20_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO21_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO22_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO23_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO24_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO25_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO26_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO27_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO28_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO29_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO30_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO31_U32_ODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO32_U32_ODO</t>
+  </si>
+  <si>
+    <t>NVM_RESET_REASON_HISTORY_1</t>
+  </si>
+  <si>
+    <t>NVM_RESET_REASON_HISTORY_2</t>
+  </si>
+  <si>
+    <t>NVM_RESET_REASON_HISTORY_3</t>
+  </si>
+  <si>
+    <t>NVM_RESET_REASON_HISTORY_4</t>
+  </si>
+  <si>
+    <t>NVM_RESET_REASON_HISTORY_5</t>
+  </si>
+  <si>
+    <t>NVM_RESET_REASON_HISTORY_7</t>
+  </si>
+  <si>
+    <t>NVM_RESET_REASON_HISTORY_8</t>
+  </si>
+  <si>
+    <t>NVM_RESET_REASON_HISTORY_9</t>
+  </si>
+  <si>
+    <t>NVM_RESET_REASON_HISTORY_10</t>
+  </si>
+  <si>
+    <t>NVM_RESET_REASON_HISTORY_6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -687,7 +792,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -764,8 +869,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -784,8 +895,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDD9C3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -967,13 +1084,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1052,12 +1245,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1070,12 +1257,104 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1136,7 +1415,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1576,16 +1855,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="42.5" customWidth="1"/>
+    <col min="2" max="2" width="48.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="37.375" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="39.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1615,7 +1894,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="30.75" thickBot="1">
@@ -1623,8 +1902,8 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="G5" s="29" t="s">
-        <v>23</v>
+      <c r="G5" s="27" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15">
@@ -1644,7 +1923,7 @@
     </row>
     <row r="7" spans="2:8" ht="39.75" customHeight="1">
       <c r="B7" s="6" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>4</v>
@@ -1653,13 +1932,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="2:8" ht="28.5">
+    <row r="8" spans="2:8" ht="39.75" customHeight="1">
       <c r="B8" s="6" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>4</v>
@@ -1668,194 +1947,195 @@
         <v>1</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>20</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="2:8" ht="14.25">
       <c r="B9" s="10" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9" s="17">
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="42.75">
       <c r="B10" s="10" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10" s="17">
         <v>1</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="28.5">
       <c r="B11" s="10" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11" s="17">
         <v>1</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="28.5">
       <c r="B12" s="10" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12" s="17">
         <v>1</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="28.5">
       <c r="B13" s="10" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D13" s="17">
         <v>1</v>
       </c>
-      <c r="E13" s="30" t="s">
-        <v>33</v>
+      <c r="E13" s="28" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="14.25">
       <c r="B14" s="10" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D14" s="17">
         <v>1</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="14.25">
       <c r="B15" s="10" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D15" s="17">
         <v>1</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="42.75">
       <c r="B16" s="10" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D16" s="17">
         <v>1</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="14.25">
       <c r="B17" s="10" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D17" s="17">
         <v>1</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="28.5">
       <c r="B18" s="10" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D18" s="17">
         <v>1</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="28.5">
       <c r="B19" s="10" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D19" s="17">
         <v>1</v>
       </c>
-      <c r="E19" s="30" t="s">
-        <v>33</v>
+      <c r="E19" s="28" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="14.25">
       <c r="B20" s="10" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D20" s="17">
         <v>1</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="42.75">
       <c r="B21" s="10" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D21" s="17">
         <v>1</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="28.5">
       <c r="B22" s="6" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>4</v>
@@ -1864,43 +2144,43 @@
         <v>1</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="14.25">
       <c r="B23" s="6" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D23" s="17">
         <v>1</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="14.25">
       <c r="B24" s="6" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D24" s="17">
         <v>1</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="14.25">
       <c r="B25" s="6" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D25" s="17">
         <v>1</v>
@@ -1911,38 +2191,38 @@
     </row>
     <row r="26" spans="2:5" ht="14.25">
       <c r="B26" s="6" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D26" s="17">
         <v>1</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="14.25">
       <c r="B27" s="6" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D27" s="17">
         <v>1</v>
       </c>
-      <c r="E27" s="31" t="s">
-        <v>46</v>
+      <c r="E27" s="29" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="14.25">
       <c r="B28" s="6" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D28" s="17">
         <v>1</v>
@@ -1953,38 +2233,38 @@
     </row>
     <row r="29" spans="2:5" ht="14.25">
       <c r="B29" s="6" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D29" s="17">
         <v>1</v>
       </c>
-      <c r="E29" s="31" t="s">
-        <v>48</v>
+      <c r="E29" s="29" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="14.25">
       <c r="B30" s="10" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D30" s="17">
         <v>1</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="14.25">
       <c r="B31" s="10" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D31" s="17">
         <v>1</v>
@@ -1995,38 +2275,38 @@
     </row>
     <row r="32" spans="2:5" ht="14.25">
       <c r="B32" s="10" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="17">
+        <v>1</v>
+      </c>
+      <c r="E32" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="D32" s="17">
-        <v>1</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="14.25">
       <c r="B33" s="10" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D33" s="17">
         <v>1</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="14.25">
       <c r="B34" s="10" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D34" s="17">
         <v>1</v>
@@ -2037,16 +2317,16 @@
     </row>
     <row r="35" spans="2:5" ht="28.5">
       <c r="B35" s="10" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D35" s="17">
         <v>1</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="14.25">
@@ -2146,15 +2426,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G36"/>
+  <dimension ref="B2:G66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="42.5" customWidth="1"/>
+    <col min="2" max="2" width="59.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="37.375" customWidth="1"/>
     <col min="6" max="6" width="12.125" customWidth="1"/>
@@ -2188,7 +2468,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30.75" thickBot="1">
@@ -2196,11 +2476,11 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="G5" s="29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="14.25">
+      <c r="G5" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15" thickBot="1">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
@@ -2215,384 +2495,828 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="18" customHeight="1">
-      <c r="B7" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="17">
-        <v>1</v>
-      </c>
-      <c r="E7" s="26">
+      <c r="B7" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="35">
+        <v>1</v>
+      </c>
+      <c r="E7" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="28.5">
-      <c r="B8" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="17">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>54</v>
+    <row r="8" spans="2:7" ht="14.25">
+      <c r="B8" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="32">
+        <v>1</v>
+      </c>
+      <c r="E8" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="14.25">
       <c r="B9" s="6" t="s">
-        <v>96</v>
+        <v>204</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D9" s="17">
         <v>1</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>56</v>
+      <c r="E9" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="14.25">
       <c r="B10" s="6" t="s">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D10" s="17">
         <v>1</v>
       </c>
-      <c r="E10" s="9">
-        <v>45882</v>
+      <c r="E10" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="14.25">
       <c r="B11" s="6" t="s">
-        <v>98</v>
+        <v>206</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D11" s="17">
         <v>1</v>
       </c>
-      <c r="E11" s="9">
-        <v>15239</v>
+      <c r="E11" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="14.25">
       <c r="B12" s="6" t="s">
-        <v>99</v>
+        <v>207</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D12" s="17">
         <v>1</v>
       </c>
-      <c r="E12" s="9">
-        <v>170</v>
+      <c r="E12" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="14.25">
       <c r="B13" s="6" t="s">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D13" s="17">
         <v>1</v>
       </c>
-      <c r="E13" s="9">
-        <v>165</v>
+      <c r="E13" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="14.25">
       <c r="B14" s="6" t="s">
-        <v>101</v>
+        <v>208</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D14" s="17">
         <v>1</v>
       </c>
-      <c r="E14" s="9">
-        <v>80</v>
+      <c r="E14" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="14.25">
       <c r="B15" s="6" t="s">
-        <v>102</v>
+        <v>209</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D15" s="17">
         <v>1</v>
       </c>
-      <c r="E15" s="9">
-        <v>85</v>
+      <c r="E15" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="14.25">
       <c r="B16" s="6" t="s">
-        <v>103</v>
+        <v>210</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D16" s="17">
         <v>1</v>
       </c>
-      <c r="E16" s="9">
-        <v>7</v>
+      <c r="E16" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="14.25">
       <c r="B17" s="6" t="s">
-        <v>104</v>
+        <v>211</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D17" s="17">
         <v>1</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="14.25">
+      <c r="B18" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="17">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="14.25">
+      <c r="B19" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="17">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="14.25">
+      <c r="B20" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="17">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="14.25">
+      <c r="B21" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="17">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="14.25">
+      <c r="B22" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="17">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="14.25">
+      <c r="B23" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="17">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="14.25">
+      <c r="B24" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="17">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="14.25">
+      <c r="B25" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="17">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="14.25">
+      <c r="B26" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="17">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="14.25">
+      <c r="B27" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="17">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="14.25">
+      <c r="B28" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="17">
+        <v>1</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="14.25">
+      <c r="B29" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="17">
+        <v>1</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="14.25">
+      <c r="B30" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="17">
+        <v>1</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="14.25">
+      <c r="B31" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="17">
+        <v>1</v>
+      </c>
+      <c r="E31" s="9">
+        <v>45882</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="14.25">
+      <c r="B32" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="17">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9">
+        <v>15239</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="14.25">
+      <c r="B33" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="17">
+        <v>1</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="14.25">
+      <c r="B34" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="17">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="14.25">
+      <c r="B35" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="17">
+        <v>1</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="14.25">
+      <c r="B36" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="17">
+        <v>1</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="14.25">
+      <c r="B37" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="17">
+        <v>1</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="14.25">
+      <c r="B38" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="17">
+        <v>1</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="14.25">
+      <c r="B39" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="17">
+        <v>1</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="14.25">
+      <c r="B40" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="17">
+        <v>1</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="14.25">
+      <c r="B41" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="17">
+        <v>1</v>
+      </c>
+      <c r="E41" s="9">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="14.25">
+      <c r="B42" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="17">
+        <v>1</v>
+      </c>
+      <c r="E42" s="9">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="14.25">
+      <c r="B43" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="17">
+        <v>1</v>
+      </c>
+      <c r="E43" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="14.25">
+      <c r="B44" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="17">
+        <v>1</v>
+      </c>
+      <c r="E44" s="9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="14.25">
+      <c r="B45" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="17">
+        <v>1</v>
+      </c>
+      <c r="E45" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="14.25">
+      <c r="B46" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="17">
+        <v>1</v>
+      </c>
+      <c r="E46" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="14.25">
-      <c r="B18" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="17">
-        <v>1</v>
-      </c>
-      <c r="E18" s="9">
+    <row r="47" spans="2:5" ht="14.25">
+      <c r="B47" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="17">
+        <v>1</v>
+      </c>
+      <c r="E47" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="14.25">
-      <c r="B19" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="17">
-        <v>1</v>
-      </c>
-      <c r="E19" s="9">
+    <row r="48" spans="2:5" ht="14.25">
+      <c r="B48" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="17">
+        <v>1</v>
+      </c>
+      <c r="E48" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="14.25">
-      <c r="B20" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="17">
-        <v>1</v>
-      </c>
-      <c r="E20" s="9">
+    <row r="49" spans="2:5" ht="14.25">
+      <c r="B49" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="17">
+        <v>1</v>
+      </c>
+      <c r="E49" s="9">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="14.25">
-      <c r="B21" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="17">
-        <v>1</v>
-      </c>
-      <c r="E21" s="9">
+    <row r="50" spans="2:5" ht="14.25">
+      <c r="B50" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="17">
+        <v>1</v>
+      </c>
+      <c r="E50" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="14.25">
-      <c r="B22" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="17">
-        <v>1</v>
-      </c>
-      <c r="E22" s="9">
+    <row r="51" spans="2:5" ht="14.25">
+      <c r="B51" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="17">
+        <v>1</v>
+      </c>
+      <c r="E51" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="14.25">
-      <c r="B23" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="17">
-        <v>1</v>
-      </c>
-      <c r="E23" s="9">
+    <row r="52" spans="2:5" ht="14.25">
+      <c r="B52" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="17">
+        <v>1</v>
+      </c>
+      <c r="E52" s="9">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="14.25">
-      <c r="B24" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="17">
-        <v>1</v>
-      </c>
-      <c r="E24" s="9">
+    <row r="53" spans="2:5" ht="14.25">
+      <c r="B53" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="17">
+        <v>1</v>
+      </c>
+      <c r="E53" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="14.25">
-      <c r="B25" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="17">
-        <v>1</v>
-      </c>
-      <c r="E25" s="9">
+    <row r="54" spans="2:5" ht="14.25">
+      <c r="B54" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="17">
+        <v>1</v>
+      </c>
+      <c r="E54" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="14.25">
-      <c r="B26" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="17">
-        <v>1</v>
-      </c>
-      <c r="E26" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="14.25">
-      <c r="B27" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="17">
-        <v>1</v>
-      </c>
-      <c r="E27" s="9">
+    <row r="55" spans="2:5" ht="14.25">
+      <c r="B55" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="17">
+        <v>1</v>
+      </c>
+      <c r="E55" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="14.25">
+      <c r="B56" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="17">
+        <v>1</v>
+      </c>
+      <c r="E56" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="14.25">
-      <c r="B28" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="17">
-        <v>1</v>
-      </c>
-      <c r="E28" s="9">
+    <row r="57" spans="2:5" ht="14.25">
+      <c r="B57" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="17">
+        <v>1</v>
+      </c>
+      <c r="E57" s="9">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="14.25">
-      <c r="B29" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="17">
-        <v>1</v>
-      </c>
-      <c r="E29" s="9">
+    <row r="58" spans="2:5" ht="14.25">
+      <c r="B58" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="17">
+        <v>1</v>
+      </c>
+      <c r="E58" s="9">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="14.25">
-      <c r="B30" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="17">
-        <v>1</v>
-      </c>
-      <c r="E30" s="9">
+    <row r="59" spans="2:5" ht="14.25">
+      <c r="B59" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="17">
+        <v>1</v>
+      </c>
+      <c r="E59" s="9">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="14.25">
-      <c r="B31" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="17">
-        <v>1</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="14.25">
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="27"/>
-    </row>
-    <row r="33" spans="2:5" ht="14.25">
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="27"/>
-    </row>
-    <row r="34" spans="2:5" ht="14.25">
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="27"/>
-    </row>
-    <row r="35" spans="2:5" ht="14.25">
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="27"/>
-    </row>
-    <row r="36" spans="2:5" ht="15" thickBot="1">
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="28"/>
+    <row r="60" spans="2:5" ht="14.25">
+      <c r="B60" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" s="17">
+        <v>1</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="14.25">
+      <c r="B61" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" s="17">
+        <v>1</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="14.25">
+      <c r="B62" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="17">
+        <v>1</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="14.25">
+      <c r="B63" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" s="17">
+        <v>1</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="14.25">
+      <c r="B64" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" s="17">
+        <v>1</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="14.25">
+      <c r="B65" s="10"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="9"/>
+    </row>
+    <row r="66" spans="2:5" ht="15" thickBot="1">
+      <c r="B66" s="13"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2606,7 +3330,7 @@
   <dimension ref="B2:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2645,7 +3369,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30.75" thickBot="1">
@@ -2653,8 +3377,8 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="G5" s="29" t="s">
-        <v>23</v>
+      <c r="G5" s="27" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="14.25">
@@ -2788,10 +3512,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G71"/>
+  <dimension ref="B2:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2831,7 +3555,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30.75" thickBot="1">
@@ -2839,8 +3563,8 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="G5" s="29" t="s">
-        <v>23</v>
+      <c r="G5" s="27" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="14.25">
@@ -2859,661 +3583,621 @@
     </row>
     <row r="7" spans="2:7" ht="13.5" customHeight="1">
       <c r="B7" s="6" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D7" s="17">
         <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="14.25">
       <c r="B8" s="6" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D8" s="17">
         <v>1</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="14.25">
       <c r="B9" s="6" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D9" s="17">
         <v>1</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="14.25">
       <c r="B10" s="6" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D10" s="17">
         <v>1</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="14.25">
       <c r="B11" s="6" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="D11" s="17">
         <v>1</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="14.25">
       <c r="B12" s="6" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="D12" s="17">
         <v>1</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="14.25">
       <c r="B13" s="6" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="D13" s="17">
         <v>1</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="14.25">
       <c r="B14" s="6" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D14" s="17">
         <v>1</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="14.25">
       <c r="B15" s="6" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D15" s="17">
         <v>1</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="14.25">
       <c r="B16" s="6" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D16" s="17">
         <v>1</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="14.25">
       <c r="B17" s="6" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D17" s="17">
         <v>1</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="14.25">
       <c r="B18" s="6" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D18" s="17">
         <v>1</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="14.25">
       <c r="B19" s="6" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D19" s="17">
         <v>1</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="14.25">
       <c r="B20" s="6" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D20" s="17">
         <v>1</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="14.25">
       <c r="B21" s="6" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D21" s="17">
         <v>1</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="14.25">
       <c r="B22" s="6" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D22" s="17">
         <v>1</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="14.25">
       <c r="B23" s="6" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D23" s="17">
         <v>1</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="14.25">
       <c r="B24" s="6" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D24" s="17">
         <v>1</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="14.25">
       <c r="B25" s="6" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D25" s="17">
         <v>1</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="14.25">
       <c r="B26" s="6" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D26" s="17">
         <v>1</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="14.25">
       <c r="B27" s="6" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D27" s="17">
         <v>1</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="14.25">
       <c r="B28" s="6" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D28" s="17">
         <v>1</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="14.25">
       <c r="B29" s="6" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D29" s="17">
         <v>1</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="14.25">
       <c r="B30" s="6" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D30" s="17">
         <v>1</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="14.25">
       <c r="B31" s="6" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D31" s="17">
         <v>1</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="14.25">
       <c r="B32" s="6" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D32" s="17">
         <v>1</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="14.25">
       <c r="B33" s="6" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D33" s="17">
         <v>1</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="14.25">
       <c r="B34" s="6" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D34" s="17">
         <v>1</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="14.25">
       <c r="B35" s="6" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D35" s="17">
         <v>1</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="14.25">
       <c r="B36" s="6" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D36" s="17">
         <v>1</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="14.25">
       <c r="B37" s="6" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D37" s="17">
         <v>1</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="14.25">
       <c r="B38" s="6" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D38" s="17">
         <v>1</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="14.25">
       <c r="B39" s="6" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D39" s="17">
         <v>1</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="14.25">
       <c r="B40" s="6" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D40" s="17">
         <v>1</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="14.25">
       <c r="B41" s="6" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D41" s="17">
         <v>1</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="14.25">
       <c r="B42" s="6" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D42" s="17">
         <v>1</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="14.25">
       <c r="B43" s="6" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D43" s="17">
         <v>1</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="14.25">
       <c r="B44" s="6" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D44" s="17">
         <v>1</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="14.25">
       <c r="B45" s="6" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D45" s="17">
         <v>1</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="14.25">
       <c r="B46" s="6" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D46" s="17">
         <v>1</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="14.25">
       <c r="B47" s="6" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D47" s="17">
         <v>1</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="14.25">
       <c r="B48" s="6" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D48" s="17">
         <v>1</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="14.25">
-      <c r="B49" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49" s="17">
-        <v>1</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="9"/>
     </row>
     <row r="50" spans="2:5" ht="14.25">
-      <c r="B50" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" s="17">
-        <v>1</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="9"/>
     </row>
     <row r="51" spans="2:5" ht="14.25">
-      <c r="B51" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" s="17">
-        <v>1</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="9"/>
     </row>
     <row r="52" spans="2:5" ht="14.25">
-      <c r="B52" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" s="17">
-        <v>1</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="9"/>
     </row>
     <row r="53" spans="2:5" ht="14.25">
-      <c r="B53" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" s="17">
-        <v>1</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="9"/>
     </row>
     <row r="54" spans="2:5" ht="14.25">
       <c r="B54" s="6"/>
@@ -3546,34 +4230,34 @@
       <c r="E58" s="9"/>
     </row>
     <row r="59" spans="2:5" ht="14.25">
-      <c r="B59" s="6"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="9"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="12"/>
     </row>
     <row r="60" spans="2:5" ht="14.25">
-      <c r="B60" s="6"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="9"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="12"/>
     </row>
     <row r="61" spans="2:5" ht="14.25">
-      <c r="B61" s="6"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="9"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="12"/>
     </row>
     <row r="62" spans="2:5" ht="14.25">
-      <c r="B62" s="6"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="9"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="12"/>
     </row>
     <row r="63" spans="2:5" ht="14.25">
-      <c r="B63" s="6"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="9"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="12"/>
     </row>
     <row r="64" spans="2:5" ht="14.25">
       <c r="B64" s="10"/>
@@ -3587,41 +4271,11 @@
       <c r="D65" s="18"/>
       <c r="E65" s="12"/>
     </row>
-    <row r="66" spans="2:5" ht="14.25">
-      <c r="B66" s="10"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="12"/>
-    </row>
-    <row r="67" spans="2:5" ht="14.25">
-      <c r="B67" s="10"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="12"/>
-    </row>
-    <row r="68" spans="2:5" ht="14.25">
-      <c r="B68" s="10"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="12"/>
-    </row>
-    <row r="69" spans="2:5" ht="14.25">
-      <c r="B69" s="10"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="12"/>
-    </row>
-    <row r="70" spans="2:5" ht="14.25">
-      <c r="B70" s="10"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="12"/>
-    </row>
-    <row r="71" spans="2:5" ht="15" thickBot="1">
-      <c r="B71" s="13"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="15"/>
+    <row r="66" spans="2:5" ht="15" thickBot="1">
+      <c r="B66" s="13"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3634,8 +4288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3674,7 +4328,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30.75" thickBot="1">
@@ -3682,8 +4336,8 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="G5" s="29" t="s">
-        <v>23</v>
+      <c r="G5" s="27" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="14.25">
@@ -3704,13 +4358,13 @@
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="8"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="2:7" ht="14.25">
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="8"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="2:7" ht="14.25">
       <c r="B9" s="6"/>

--- a/NVMConfig/res/NVM_Table.xlsx
+++ b/NVMConfig/res/NVM_Table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="179">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,10 @@
   </si>
   <si>
     <t>Author: Jiang Yuchang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01, 0x00, 0x00, 0x00, 0xFF, 0xFF, 0xFF, 0xFF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -120,6 +124,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0xFF, 0xFF, 0x10, 0x08, 0x16, 0x01, 0x00, 0x00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int8[4]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,6 +231,10 @@
     <t>174, 241, 343, 167, 425, 111, 499, 56, 526, 36, 559, 18</t>
   </si>
   <si>
+    <t>0x3D, 0xD5, 0xC2, 0xFD, 0x4A, 0xFB, 0x18, 0xE0, 0x20, 0xFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int8[3]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,6 +247,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>int8[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xA2, 0xF5, 0xA5, 0x10, 0x1F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,39 +275,455 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xD5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xC2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xFD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x4A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xFB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xE0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x20</t>
+    <t>NVM_PROD_VERSION_INFO2_U8_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F100_U8_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F190_U8_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F187_U8_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F197_U8_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F18A_U8_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F193_U8_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F195_U8_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F18C_U8_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F199_U8_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F184_U8_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F150_U8_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F180_U8_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_STORED_DATA_F1A8_U8_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_MagicCfg_U8_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN_TAB_SPD_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT_TAB_SPD_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RO_VAL_G4_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN_TAB_TACH_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT_TAB_TACH_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RO_VAL_G1_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN_TAB_TEMP_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT_TAB_TEMP_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RO_VAL_G2_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN_TAB_OIL_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT_TAB_OIL_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RO_VAL_G3_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelSender_Table_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_VarCfg_5007_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_VarCfg_5024_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_VarCfg_5002_U16_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_VarCfg_5003_U16_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_UpOpVol_CutOff_Threshold_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_UpOpVol_Recovery_Threshold_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_LoOpVol_CutOff_Threshold_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_LoOpVol_Recovery_Threshold_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_Night_Mode_BL_Coefficient_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_Tacho_Idle_rpm_up_Threshold_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_Tacho_Idle_rpm_down_Threshold_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_Tacho_Idle_rpm_time_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_Fuel_From_E_to_F_Damping_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_Fast_Fuel_VehSpd_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_AFE_DTE_Update_Duration_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_IFE_Update_Duration_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_N_Gear_Filter_time_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_R_Gear_Filter_time_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_Not_R_and_N_Gear_Filter_time_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_Illumi_Popup_Invalid_input_time_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_ODO_Incremental_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_Door_Open_Speed_Enable_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_Door_Open_Speed_Disable_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_Warning_and_Time_Cfg_U8_VAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_TripARstOdo_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_TripBRstOdo_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_SiaRstOdo_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_OdoCfg_5001_U8_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_OdoCfg_OFFSET_U8_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_OdoCfg_RST_CNT_U8_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_RsvdCfg1_U8_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_RsvdCfg2_U8_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_RsvdCfg3_U8_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_RsvdCfg4_U8_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_RsvdCfg5_U8_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_RsvdCfg6_U8_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_RsvdCfg7_U8_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_RsvdCfg8_U8_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_RsvdCfg9_U8_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO1_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO2_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO3_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO4_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO5_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO6_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO7_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO8_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO9_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO10_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO11_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO12_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO13_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO14_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO15_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO16_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO17_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO18_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO19_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO20_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO21_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO22_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO23_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO24_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO25_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO26_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO27_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO28_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO29_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO30_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO31_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_EEL_ODO32_U32_ODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_PROD_VERSION_INFO1_U8_CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_RESET_REASON_HISTORY_INDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_RESET_REASON_HISTORY_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_RESET_REASON_HISTORY_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_RESET_REASON_HISTORY_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_RESET_REASON_HISTORY_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_RESET_REASON_HISTORY_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_RESET_REASON_HISTORY_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_RESET_REASON_HISTORY_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_RESET_REASON_HISTORY_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_RESET_REASON_HISTORY_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_RESET_REASON_HISTORY_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int8[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVM_FBL_PROGRAM_FLAG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -295,496 +731,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x0A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xA2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xF5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xA5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x1F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00,0x00,0x00,0x00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xFF, 0xFF, 0x10, 0x08, 0x16, 0x01, 0x00, 0x00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x01, 0x00, 0x00, 0x00, 0xFF, 0xFF, 0xFF, 0xFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_PROD_VERSION_INFO1_U8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_PROD_VERSION_INFO2_U8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F100_U8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F190_U8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F187_U8</t>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F197_U8</t>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F18A_U8</t>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F193_U8</t>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F195_U8</t>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F18C_U8</t>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F199_U8</t>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F184_U8</t>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F150_U8</t>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F180_U8</t>
-  </si>
-  <si>
-    <t>NVM_STORED_DATA_F1A8_U8</t>
-  </si>
-  <si>
-    <t>NVM_MagicCfg_U8</t>
-  </si>
-  <si>
-    <t>IN_TAB_SPD</t>
-  </si>
-  <si>
-    <t>OUT_TAB_SPD</t>
-  </si>
-  <si>
-    <t>RO_VAL_G4</t>
-  </si>
-  <si>
-    <t>IN_TAB_TACH</t>
-  </si>
-  <si>
-    <t>OUT_TAB_TACH</t>
-  </si>
-  <si>
-    <t>RO_VAL_G1</t>
-  </si>
-  <si>
-    <t>IN_TAB_TEMP</t>
-  </si>
-  <si>
-    <t>OUT_TAB_TEMP</t>
-  </si>
-  <si>
-    <t>RO_VAL_G2</t>
-  </si>
-  <si>
-    <t>IN_TAB_OIL</t>
-  </si>
-  <si>
-    <t>OUT_TAB_OIL</t>
-  </si>
-  <si>
-    <t>RO_VAL_G3</t>
-  </si>
-  <si>
-    <t>FuelSender_Table</t>
-  </si>
-  <si>
-    <t>NVMCfg_5007_BYTE1_U8</t>
-  </si>
-  <si>
-    <t>NVMCfg_5007_BYTE2_U8</t>
-  </si>
-  <si>
-    <t>NVMCfg_5007_BYTE3_U8</t>
-  </si>
-  <si>
-    <t>NVMCfg_5007_BYTE4_U8</t>
-  </si>
-  <si>
-    <t>NVMCfg_5007_BYTE5_U8</t>
-  </si>
-  <si>
-    <t>NVMCfg_5007_BYTE6_U8</t>
-  </si>
-  <si>
-    <t>NVMCfg_5007_BYTE7_U8</t>
-  </si>
-  <si>
-    <t>NVMCfg_5007_BYTE8_U8</t>
-  </si>
-  <si>
-    <t>NVMCfg_5007_BYTE9_U8</t>
-  </si>
-  <si>
-    <t>NVMCfg_5007_BYTE10_U8</t>
-  </si>
-  <si>
-    <t>NVM_OEMCFG_OFFSET_U8</t>
-  </si>
-  <si>
-    <t>NVM_OEMCFG_RST_CNT_U8</t>
-  </si>
-  <si>
-    <t>NVMCfg_5024_U8</t>
-  </si>
-  <si>
-    <t>NVMCfg_5002_U16</t>
-  </si>
-  <si>
-    <t>NVMCfg_5003_U16</t>
-  </si>
-  <si>
-    <t>NVM_OEMCFG_ETC_BYTE1_U8</t>
-  </si>
-  <si>
-    <t>NVM_OEMCFG_ETC_BYTE2_U8</t>
-  </si>
-  <si>
-    <t>NVM_OEMCFG_ETC_BYTE3_U8</t>
-  </si>
-  <si>
-    <t>NVM_OEMCFG_ETC_BYTE4_U8</t>
-  </si>
-  <si>
-    <t>NVM_OEMCFG_ETC_BYTE5_U8</t>
-  </si>
-  <si>
-    <t>NVM_OEMCFG_ETC_BYTE6_U8</t>
-  </si>
-  <si>
-    <t>NVM_OEMCFG_ETC_BYTE7_U8</t>
-  </si>
-  <si>
-    <t>NVM_OEMCFG_ETC_BYTE8_U8</t>
-  </si>
-  <si>
-    <t>NVM_UpOpVol_CutOff_Threshold_U8</t>
-  </si>
-  <si>
-    <t>NVM_UpOpVol_Recovery_Threshold_U8</t>
-  </si>
-  <si>
-    <t>NVM_LoOpVol_CutOff_Threshold_U8</t>
-  </si>
-  <si>
-    <t>NVM_LoOpVol_Recovery_Threshold_U8</t>
-  </si>
-  <si>
-    <t>NVM_Night_Mode_BL_Coefficient_U8</t>
-  </si>
-  <si>
-    <t>NVM_Tacho_Idle_rpm_up_Threshold_U8</t>
-  </si>
-  <si>
-    <t>NVM_Tacho_Idle_rpm_down_Threshold_U8</t>
-  </si>
-  <si>
-    <t>NVM_Tacho_Idle_rpm_time_U8</t>
-  </si>
-  <si>
-    <t>NVM_Fuel_From_E_to_F_Damping_U8</t>
-  </si>
-  <si>
-    <t>NVM_Fast_Fuel_VehSpd_U8</t>
-  </si>
-  <si>
-    <t>NVM_AFE_DTE_Update_Duration_U8</t>
-  </si>
-  <si>
-    <t>NVM_IFE_Update_Duration_U8</t>
-  </si>
-  <si>
-    <t>NVM_N_Gear_Filter_time_U8</t>
-  </si>
-  <si>
-    <t>NVM_R_Gear_Filter_time_U8</t>
-  </si>
-  <si>
-    <t>NVM_Not_R_and_N_Gear_Filter_time_U8</t>
-  </si>
-  <si>
-    <t>NVM_Illumi_Popup_Invalid_input_time_U8</t>
-  </si>
-  <si>
-    <t>NVM_ODO_Incremental_U8</t>
-  </si>
-  <si>
-    <t>NVM_Door_Open_Speed_Enable_U8</t>
-  </si>
-  <si>
-    <t>NVM_Door_Open_Speed_Disable_U8</t>
-  </si>
-  <si>
-    <t>NVM_Chime_Interval_BL_TurnOnOff_Duration_U8</t>
-  </si>
-  <si>
-    <t>NVM_Warning_and_Time_Cfg_U8</t>
-  </si>
-  <si>
-    <t>NVM_ICM_Sleep_Time_TFT_Sleep_Time_U8</t>
-  </si>
-  <si>
-    <t>NVM_ICM_Alert_Volume_Theme_Street_Mode_Relax_Time_U8</t>
-  </si>
-  <si>
-    <t>NVM_ICM_Thruway_Mode_Relax_Time_Relax_Switch_U8</t>
-  </si>
-  <si>
-    <t>NVM_TripARstOdo_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_TripBRstOdo_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_SiaRstOdo_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_OdoCfg_5001_U8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_OdoCfg_OFFSET_U8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_OdoCfg_RST_CNT_U8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_OdoCfg_BACKUP_CNT_U8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_RsvdCfg1_U8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_RsvdCfg2_U8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_RsvdCfg3_U8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO1_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO2_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO3_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO4_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO5_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO6_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO7_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO8_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO9_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO10_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO11_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO12_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO13_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO14_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO15_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO16_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO17_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO18_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO19_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO20_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO21_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO22_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO23_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO24_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO25_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO26_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO27_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO28_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO29_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO30_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO31_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_EEL_ODO32_U32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVM_RESET_REASON_HISTORY_INDEX</t>
-  </si>
-  <si>
-    <t>int32</t>
-  </si>
-  <si>
-    <t>NVM_RESET_REASON_HISTORY_1</t>
-  </si>
-  <si>
-    <t>NVM_RESET_REASON_HISTORY_2</t>
-  </si>
-  <si>
-    <t>NVM_RESET_REASON_HISTORY_3</t>
-  </si>
-  <si>
-    <t>NVM_RESET_REASON_HISTORY_4</t>
-  </si>
-  <si>
-    <t>NVM_RESET_REASON_HISTORY_5</t>
-  </si>
-  <si>
-    <t>NVM_RESET_REASON_HISTORY_7</t>
-  </si>
-  <si>
-    <t>NVM_RESET_REASON_HISTORY_8</t>
-  </si>
-  <si>
-    <t>NVM_RESET_REASON_HISTORY_9</t>
-  </si>
-  <si>
-    <t>NVM_RESET_REASON_HISTORY_10</t>
-  </si>
-  <si>
-    <t>NVM_RESET_REASON_HISTORY_6</t>
+    <r>
+      <t>NVM_FBL_RES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">ERVE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -871,12 +849,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times"/>
-      <family val="1"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -895,14 +874,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDD9C3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1084,89 +1057,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1245,6 +1142,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1257,29 +1160,8 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1855,16 +1737,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5" customWidth="1"/>
     <col min="3" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="37.375" customWidth="1"/>
-    <col min="6" max="6" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1894,7 +1776,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="30.75" thickBot="1">
@@ -1902,8 +1784,8 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="G5" s="27" t="s">
-        <v>21</v>
+      <c r="G5" s="29" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15">
@@ -1923,7 +1805,7 @@
     </row>
     <row r="7" spans="2:8" ht="39.75" customHeight="1">
       <c r="B7" s="6" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>4</v>
@@ -1932,13 +1814,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="2:8" ht="39.75" customHeight="1">
+    <row r="8" spans="2:8" ht="28.5">
       <c r="B8" s="6" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>4</v>
@@ -1947,195 +1829,194 @@
         <v>1</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="21"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="2:8" ht="14.25">
       <c r="B9" s="10" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="17">
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="42.75">
       <c r="B10" s="10" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="17">
         <v>1</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="28.5">
       <c r="B11" s="10" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" s="17">
         <v>1</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="28.5">
       <c r="B12" s="10" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" s="17">
         <v>1</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="28.5">
       <c r="B13" s="10" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13" s="17">
         <v>1</v>
       </c>
-      <c r="E13" s="28" t="s">
-        <v>30</v>
+      <c r="E13" s="30" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="14.25">
       <c r="B14" s="10" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D14" s="17">
         <v>1</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="14.25">
       <c r="B15" s="10" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D15" s="17">
         <v>1</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="42.75">
       <c r="B16" s="10" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D16" s="17">
         <v>1</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="14.25">
       <c r="B17" s="10" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D17" s="17">
         <v>1</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="28.5">
       <c r="B18" s="10" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D18" s="17">
         <v>1</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="28.5">
       <c r="B19" s="10" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D19" s="17">
         <v>1</v>
       </c>
-      <c r="E19" s="28" t="s">
-        <v>30</v>
+      <c r="E19" s="30" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="14.25">
       <c r="B20" s="10" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D20" s="17">
         <v>1</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="42.75">
       <c r="B21" s="10" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D21" s="17">
         <v>1</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="28.5">
       <c r="B22" s="6" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>4</v>
@@ -2144,43 +2025,43 @@
         <v>1</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="14.25">
       <c r="B23" s="6" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D23" s="17">
         <v>1</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="14.25">
       <c r="B24" s="6" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D24" s="17">
         <v>1</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="14.25">
       <c r="B25" s="6" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D25" s="17">
         <v>1</v>
@@ -2191,38 +2072,38 @@
     </row>
     <row r="26" spans="2:5" ht="14.25">
       <c r="B26" s="6" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D26" s="17">
         <v>1</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="14.25">
       <c r="B27" s="6" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D27" s="17">
         <v>1</v>
       </c>
-      <c r="E27" s="29" t="s">
-        <v>43</v>
+      <c r="E27" s="31" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="14.25">
       <c r="B28" s="6" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D28" s="17">
         <v>1</v>
@@ -2233,38 +2114,38 @@
     </row>
     <row r="29" spans="2:5" ht="14.25">
       <c r="B29" s="6" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D29" s="17">
         <v>1</v>
       </c>
-      <c r="E29" s="29" t="s">
-        <v>45</v>
+      <c r="E29" s="31" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="14.25">
       <c r="B30" s="10" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D30" s="17">
         <v>1</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="14.25">
       <c r="B31" s="10" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D31" s="17">
         <v>1</v>
@@ -2275,38 +2156,38 @@
     </row>
     <row r="32" spans="2:5" ht="14.25">
       <c r="B32" s="10" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D32" s="17">
         <v>1</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="14.25">
       <c r="B33" s="10" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D33" s="17">
         <v>1</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="14.25">
       <c r="B34" s="10" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D34" s="17">
         <v>1</v>
@@ -2317,16 +2198,16 @@
     </row>
     <row r="35" spans="2:5" ht="28.5">
       <c r="B35" s="10" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D35" s="17">
         <v>1</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="14.25">
@@ -2426,7 +2307,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G66"/>
+  <dimension ref="B2:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -2434,7 +2315,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="59.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5" customWidth="1"/>
     <col min="3" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="37.375" customWidth="1"/>
     <col min="6" max="6" width="12.125" customWidth="1"/>
@@ -2468,7 +2349,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30.75" thickBot="1">
@@ -2476,11 +2357,11 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="G5" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="15" thickBot="1">
+      <c r="G5" s="29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="14.25">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
@@ -2495,828 +2376,524 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="18" customHeight="1">
-      <c r="B7" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="D7" s="35">
-        <v>1</v>
-      </c>
-      <c r="E7" s="34">
+      <c r="B7" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="14.25">
-      <c r="B8" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="C8" s="31" t="s">
+    <row r="8" spans="2:7" ht="18" customHeight="1">
+      <c r="B8" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1</v>
+      </c>
+      <c r="E8" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="18" customHeight="1">
+      <c r="B9" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="17">
+        <v>1</v>
+      </c>
+      <c r="E9" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="18" customHeight="1">
+      <c r="B10" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1</v>
+      </c>
+      <c r="E10" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="18" customHeight="1">
+      <c r="B11" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="17">
+        <v>1</v>
+      </c>
+      <c r="E11" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="18" customHeight="1">
+      <c r="B12" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="17">
+        <v>1</v>
+      </c>
+      <c r="E12" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="18" customHeight="1">
+      <c r="B13" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="17">
+        <v>1</v>
+      </c>
+      <c r="E13" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="18" customHeight="1">
+      <c r="B14" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="17">
+        <v>1</v>
+      </c>
+      <c r="E14" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="18" customHeight="1">
+      <c r="B15" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="17">
+        <v>1</v>
+      </c>
+      <c r="E15" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="18" customHeight="1">
+      <c r="B16" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="17">
+        <v>1</v>
+      </c>
+      <c r="E16" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="18" customHeight="1">
+      <c r="B17" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="28.5">
+      <c r="B18" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="32">
-        <v>1</v>
-      </c>
-      <c r="E8" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="14.25">
-      <c r="B9" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="17">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="14.25">
-      <c r="B10" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="17">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="14.25">
-      <c r="B11" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="17">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="14.25">
-      <c r="B12" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="17">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="14.25">
-      <c r="B13" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="17">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="14.25">
-      <c r="B14" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="17">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="14.25">
-      <c r="B15" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="17">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="14.25">
-      <c r="B16" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="17">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="14.25">
-      <c r="B17" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="14.25">
-      <c r="B18" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="17">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="D18" s="17">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="14.25">
       <c r="B19" s="6" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="17">
         <v>1</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>60</v>
+      <c r="E19" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="14.25">
       <c r="B20" s="6" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D20" s="17">
         <v>1</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>61</v>
+      <c r="E20" s="9">
+        <v>45882</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="14.25">
       <c r="B21" s="6" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17">
         <v>1</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>62</v>
+      <c r="E21" s="9">
+        <v>15239</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="14.25">
       <c r="B22" s="6" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D22" s="17">
         <v>1</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>63</v>
+      <c r="E22" s="9">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="14.25">
       <c r="B23" s="6" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D23" s="17">
         <v>1</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>64</v>
+      <c r="E23" s="9">
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="14.25">
       <c r="B24" s="6" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D24" s="17">
         <v>1</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>65</v>
+      <c r="E24" s="9">
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="14.25">
       <c r="B25" s="6" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D25" s="17">
         <v>1</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>66</v>
+      <c r="E25" s="9">
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="14.25">
       <c r="B26" s="6" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D26" s="17">
         <v>1</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>67</v>
+      <c r="E26" s="9">
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="14.25">
       <c r="B27" s="6" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D27" s="17">
         <v>1</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="14.25">
+      <c r="B28" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" ht="14.25">
-      <c r="B28" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="D28" s="17">
         <v>1</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>80</v>
+      <c r="E28" s="9">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="14.25">
-      <c r="B29" s="6" t="s">
-        <v>123</v>
+      <c r="B29" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D29" s="17">
         <v>1</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>80</v>
+      <c r="E29" s="9">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="14.25">
-      <c r="B30" s="6" t="s">
-        <v>124</v>
+      <c r="B30" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D30" s="17">
         <v>1</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>52</v>
+      <c r="E30" s="9">
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="14.25">
-      <c r="B31" s="6" t="s">
-        <v>125</v>
+      <c r="B31" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D31" s="17">
         <v>1</v>
       </c>
       <c r="E31" s="9">
-        <v>45882</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="14.25">
-      <c r="B32" s="6" t="s">
-        <v>126</v>
+      <c r="B32" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D32" s="17">
         <v>1</v>
       </c>
       <c r="E32" s="9">
-        <v>15239</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="14.25">
-      <c r="B33" s="6" t="s">
-        <v>127</v>
+      <c r="B33" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D33" s="17">
         <v>1</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>69</v>
+      <c r="E33" s="9">
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="14.25">
-      <c r="B34" s="6" t="s">
-        <v>128</v>
+      <c r="B34" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D34" s="17">
         <v>1</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>69</v>
+      <c r="E34" s="9">
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="14.25">
-      <c r="B35" s="6" t="s">
-        <v>129</v>
+      <c r="B35" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D35" s="17">
         <v>1</v>
       </c>
-      <c r="E35" s="9" t="s">
-        <v>70</v>
+      <c r="E35" s="9">
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="14.25">
-      <c r="B36" s="6" t="s">
-        <v>130</v>
+      <c r="B36" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D36" s="17">
         <v>1</v>
       </c>
-      <c r="E36" s="9" t="s">
-        <v>71</v>
+      <c r="E36" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="14.25">
-      <c r="B37" s="6" t="s">
-        <v>131</v>
+      <c r="B37" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D37" s="17">
         <v>1</v>
       </c>
-      <c r="E37" s="9" t="s">
-        <v>71</v>
+      <c r="E37" s="9">
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="14.25">
-      <c r="B38" s="6" t="s">
-        <v>132</v>
+      <c r="B38" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D38" s="17">
         <v>1</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>71</v>
+      <c r="E38" s="9">
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="14.25">
-      <c r="B39" s="6" t="s">
-        <v>133</v>
+      <c r="B39" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D39" s="17">
         <v>1</v>
       </c>
-      <c r="E39" s="9" t="s">
-        <v>71</v>
+      <c r="E39" s="9">
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="14.25">
-      <c r="B40" s="6" t="s">
-        <v>134</v>
+      <c r="B40" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D40" s="17">
         <v>1</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>71</v>
+      <c r="E40" s="9">
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="14.25">
-      <c r="B41" s="6" t="s">
-        <v>135</v>
+      <c r="B41" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D41" s="17">
         <v>1</v>
       </c>
-      <c r="E41" s="9">
-        <v>170</v>
+      <c r="E41" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="14.25">
-      <c r="B42" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="17">
-        <v>1</v>
-      </c>
-      <c r="E42" s="9">
-        <v>165</v>
-      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="27"/>
     </row>
     <row r="43" spans="2:5" ht="14.25">
-      <c r="B43" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" s="17">
-        <v>1</v>
-      </c>
-      <c r="E43" s="9">
-        <v>80</v>
-      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="27"/>
     </row>
     <row r="44" spans="2:5" ht="14.25">
-      <c r="B44" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="17">
-        <v>1</v>
-      </c>
-      <c r="E44" s="9">
-        <v>85</v>
-      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="27"/>
     </row>
     <row r="45" spans="2:5" ht="14.25">
-      <c r="B45" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="17">
-        <v>1</v>
-      </c>
-      <c r="E45" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" ht="14.25">
-      <c r="B46" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" s="17">
-        <v>1</v>
-      </c>
-      <c r="E46" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" ht="14.25">
-      <c r="B47" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="17">
-        <v>1</v>
-      </c>
-      <c r="E47" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" ht="14.25">
-      <c r="B48" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="17">
-        <v>1</v>
-      </c>
-      <c r="E48" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" ht="14.25">
-      <c r="B49" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="17">
-        <v>1</v>
-      </c>
-      <c r="E49" s="9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" ht="14.25">
-      <c r="B50" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="17">
-        <v>1</v>
-      </c>
-      <c r="E50" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" ht="14.25">
-      <c r="B51" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="17">
-        <v>1</v>
-      </c>
-      <c r="E51" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" ht="14.25">
-      <c r="B52" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D52" s="17">
-        <v>1</v>
-      </c>
-      <c r="E52" s="9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" ht="14.25">
-      <c r="B53" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="17">
-        <v>1</v>
-      </c>
-      <c r="E53" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" ht="14.25">
-      <c r="B54" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54" s="17">
-        <v>1</v>
-      </c>
-      <c r="E54" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" ht="14.25">
-      <c r="B55" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D55" s="17">
-        <v>1</v>
-      </c>
-      <c r="E55" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" ht="14.25">
-      <c r="B56" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D56" s="17">
-        <v>1</v>
-      </c>
-      <c r="E56" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" ht="14.25">
-      <c r="B57" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D57" s="17">
-        <v>1</v>
-      </c>
-      <c r="E57" s="9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" ht="14.25">
-      <c r="B58" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D58" s="17">
-        <v>1</v>
-      </c>
-      <c r="E58" s="9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" ht="14.25">
-      <c r="B59" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D59" s="17">
-        <v>1</v>
-      </c>
-      <c r="E59" s="9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" ht="14.25">
-      <c r="B60" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D60" s="17">
-        <v>1</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" ht="14.25">
-      <c r="B61" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D61" s="17">
-        <v>1</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" ht="14.25">
-      <c r="B62" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D62" s="17">
-        <v>1</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" ht="14.25">
-      <c r="B63" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D63" s="17">
-        <v>1</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" ht="14.25">
-      <c r="B64" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D64" s="17">
-        <v>1</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" ht="14.25">
-      <c r="B65" s="10"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="9"/>
-    </row>
-    <row r="66" spans="2:5" ht="15" thickBot="1">
-      <c r="B66" s="13"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="26"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="27"/>
+    </row>
+    <row r="46" spans="2:5" ht="15" thickBot="1">
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3330,7 +2907,7 @@
   <dimension ref="B2:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3369,7 +2946,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30.75" thickBot="1">
@@ -3377,8 +2954,8 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="G5" s="27" t="s">
-        <v>21</v>
+      <c r="G5" s="29" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="14.25">
@@ -3512,10 +3089,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G66"/>
+  <dimension ref="B2:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3555,7 +3132,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30.75" thickBot="1">
@@ -3563,8 +3140,8 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="G5" s="27" t="s">
-        <v>21</v>
+      <c r="G5" s="29" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="14.25">
@@ -3583,621 +3160,661 @@
     </row>
     <row r="7" spans="2:7" ht="13.5" customHeight="1">
       <c r="B7" s="6" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D7" s="17">
         <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="14.25">
       <c r="B8" s="6" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D8" s="17">
         <v>1</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="14.25">
       <c r="B9" s="6" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D9" s="17">
         <v>1</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="14.25">
       <c r="B10" s="6" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D10" s="17">
         <v>1</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="14.25">
       <c r="B11" s="6" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D11" s="17">
         <v>1</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="14.25">
       <c r="B12" s="6" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D12" s="17">
         <v>1</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="14.25">
       <c r="B13" s="6" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D13" s="17">
         <v>1</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="14.25">
       <c r="B14" s="6" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D14" s="17">
         <v>1</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="14.25">
       <c r="B15" s="6" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D15" s="17">
         <v>1</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="14.25">
       <c r="B16" s="6" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D16" s="17">
         <v>1</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="14.25">
       <c r="B17" s="6" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D17" s="17">
         <v>1</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="14.25">
       <c r="B18" s="6" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D18" s="17">
         <v>1</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="14.25">
       <c r="B19" s="6" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D19" s="17">
         <v>1</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="14.25">
       <c r="B20" s="6" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D20" s="17">
         <v>1</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="14.25">
       <c r="B21" s="6" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D21" s="17">
         <v>1</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="14.25">
       <c r="B22" s="6" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D22" s="17">
         <v>1</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="14.25">
       <c r="B23" s="6" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D23" s="17">
         <v>1</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="14.25">
       <c r="B24" s="6" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D24" s="17">
         <v>1</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="14.25">
       <c r="B25" s="6" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D25" s="17">
         <v>1</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="14.25">
       <c r="B26" s="6" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D26" s="17">
         <v>1</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="14.25">
       <c r="B27" s="6" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D27" s="17">
         <v>1</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="14.25">
       <c r="B28" s="6" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D28" s="17">
         <v>1</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="14.25">
       <c r="B29" s="6" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D29" s="17">
         <v>1</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="14.25">
       <c r="B30" s="6" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D30" s="17">
         <v>1</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="14.25">
       <c r="B31" s="6" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D31" s="17">
         <v>1</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="14.25">
       <c r="B32" s="6" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D32" s="17">
         <v>1</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="14.25">
       <c r="B33" s="6" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D33" s="17">
         <v>1</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="14.25">
       <c r="B34" s="6" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D34" s="17">
         <v>1</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="14.25">
       <c r="B35" s="6" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D35" s="17">
         <v>1</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="14.25">
       <c r="B36" s="6" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D36" s="17">
         <v>1</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="14.25">
       <c r="B37" s="6" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D37" s="17">
         <v>1</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="14.25">
       <c r="B38" s="6" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D38" s="17">
         <v>1</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="14.25">
       <c r="B39" s="6" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D39" s="17">
         <v>1</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="14.25">
       <c r="B40" s="6" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D40" s="17">
         <v>1</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="14.25">
       <c r="B41" s="6" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D41" s="17">
         <v>1</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="14.25">
       <c r="B42" s="6" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D42" s="17">
         <v>1</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="14.25">
       <c r="B43" s="6" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D43" s="17">
         <v>1</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="14.25">
       <c r="B44" s="6" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D44" s="17">
         <v>1</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="14.25">
       <c r="B45" s="6" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D45" s="17">
         <v>1</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="14.25">
       <c r="B46" s="6" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D46" s="17">
         <v>1</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="14.25">
       <c r="B47" s="6" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D47" s="17">
         <v>1</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="14.25">
       <c r="B48" s="6" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D48" s="17">
         <v>1</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="14.25">
-      <c r="B49" s="6"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="9"/>
+      <c r="B49" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="17">
+        <v>1</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="50" spans="2:5" ht="14.25">
-      <c r="B50" s="6"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="9"/>
+      <c r="B50" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="17">
+        <v>1</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="51" spans="2:5" ht="14.25">
-      <c r="B51" s="6"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="9"/>
+      <c r="B51" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="17">
+        <v>1</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="52" spans="2:5" ht="14.25">
-      <c r="B52" s="6"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="9"/>
+      <c r="B52" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="17">
+        <v>1</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="53" spans="2:5" ht="14.25">
-      <c r="B53" s="6"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="9"/>
+      <c r="B53" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="17">
+        <v>1</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="54" spans="2:5" ht="14.25">
       <c r="B54" s="6"/>
@@ -4230,34 +3847,34 @@
       <c r="E58" s="9"/>
     </row>
     <row r="59" spans="2:5" ht="14.25">
-      <c r="B59" s="10"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="12"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="9"/>
     </row>
     <row r="60" spans="2:5" ht="14.25">
-      <c r="B60" s="10"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="12"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="9"/>
     </row>
     <row r="61" spans="2:5" ht="14.25">
-      <c r="B61" s="10"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="12"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="9"/>
     </row>
     <row r="62" spans="2:5" ht="14.25">
-      <c r="B62" s="10"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="12"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="9"/>
     </row>
     <row r="63" spans="2:5" ht="14.25">
-      <c r="B63" s="10"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="12"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="9"/>
     </row>
     <row r="64" spans="2:5" ht="14.25">
       <c r="B64" s="10"/>
@@ -4271,11 +3888,41 @@
       <c r="D65" s="18"/>
       <c r="E65" s="12"/>
     </row>
-    <row r="66" spans="2:5" ht="15" thickBot="1">
-      <c r="B66" s="13"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="15"/>
+    <row r="66" spans="2:5" ht="14.25">
+      <c r="B66" s="10"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="12"/>
+    </row>
+    <row r="67" spans="2:5" ht="14.25">
+      <c r="B67" s="10"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="12"/>
+    </row>
+    <row r="68" spans="2:5" ht="14.25">
+      <c r="B68" s="10"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="12"/>
+    </row>
+    <row r="69" spans="2:5" ht="14.25">
+      <c r="B69" s="10"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="12"/>
+    </row>
+    <row r="70" spans="2:5" ht="14.25">
+      <c r="B70" s="10"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="12"/>
+    </row>
+    <row r="71" spans="2:5" ht="15" thickBot="1">
+      <c r="B71" s="13"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4289,7 +3936,7 @@
   <dimension ref="B2:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4328,7 +3975,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30.75" thickBot="1">
@@ -4336,8 +3983,8 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="G5" s="27" t="s">
-        <v>21</v>
+      <c r="G5" s="29" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="14.25">
@@ -4354,17 +4001,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="39.75" customHeight="1">
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="9"/>
+    <row r="7" spans="2:7" ht="16.5" customHeight="1">
+      <c r="B7" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="2:7" ht="14.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="9"/>
+      <c r="B8" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="2:7" ht="14.25">
       <c r="B9" s="6"/>
